--- a/data/genius_Bushido_Heavy-Metal-Payback.xlsx
+++ b/data/genius_Bushido_Heavy-Metal-Payback.xlsx
@@ -407,8 +407,75 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Part 1]Ich hab Deutschrap kaputt gemachtGuck ich nehm Deutschrap den Rucksack abIch breche euch jetzt das SchulterblattZeig was Schuld dran hat, Ich bring den GossensoundWestberlin, Tempelhof, Komm her ich boxe draufDas nenn ich EinlochmusikUnd ich rappe nur vom Ghetto, Jetzt fällt der Vergleich auf ParisDas ist Aufstand, Wer schmeißt den MolotowcocktailJetzt kommt mein Bezirk, jeder Ochse trägt LonsdaleGhettorap hin, Ghettorap herBin im Ghetto jetzt King, lauf im Ghetto weg FlerSchmeiß die Fuffies durch den ClubIch schmeiß Fünfhunderter in MüllUnd ich bums mit deiner Mutter jetzt auf PillenBin ein Carlo Cokxxx OriginalDoch jetzt kommt Heavy Metal PaybackIch lass dich zittern wie dein AidstestIch hab das ganze Land hypnotisiertUnd du öffnest diesem Psycho die Tür[Hook]Hier kommt der G-G-GangstaIch schreib mein Album über NachtNutte hier kommt Unterhaltung für den KnastWeil alles schwarz-metallic bleibtIch bin der, der seine scharfe Knarre zeigtHier kommt der G-G-GangstaIch renn vor Bullen nicht davonIch will nur, dass mich die Bullen nicht bekommenUnd dieser Scheiß pumpt krassDenn wir hören den Polizeifunk abG-G-Gangsta
-[Part 2]Gangsterrap ist für mich langsam nur noch FreizeitKein Scheiß, Ich überfall die Tanke ich will reich seinSkyline, war mein Ziel und ich habs gemachtDu hast lauter Scheine doch nicht G`s in deiner NachbarschaftMenace to Society, Lederjacken, Weltmacht, SchwarzgeldUnd das zählen macht mich hellwachEin Koksschneemann, so was macht mir wieder SpaßIn dir steckt ein Hund junge, so als wärst du ChinafraßWer will mich dissen?Fler klingt beschissenDiss mich, ich werd auf den Erstbesten pissenBeef mit Deutschland, Schuld hab ich alleinHäng mein Gold an die Wand wie der Sultan von BruneiBass Sultan ist alleinEr chillt mit seinem KampfhundInterview? Keine Lust, Ich bin arrogant PunktUnd das Land pumpt Heavy Metal PaybackDu bist nur im Lesben- oder Gaychat[Hook][Part 3]Gangsta, weil mein größter Fan ein Asylant bleibtKreuzberg, jetzt verrat mir deine Stadt du LandeiSchöneberg, komm verrat mir deine Stadt du LandeiNeuköln, kein Berlin, wir stecken den Schwanz reinDu bist kein Ghet-Ghet-GhettopräsidentSchau dich an du bist so fett, fett, fett Bass Sultan HengztIch wollt bei diesem Album aufhören zu dissenIch bin auf Viagra und ich soll jetzt aufhören zu ficken?Darf ich vorstellen: Das ist mein Schwanz, sag mal "Guten Tag"Und das ist Kay, er kommt ganz ohne Schule klarJa meine Freunde haben StraßenabiturUnsre Haare wirken assi doch wir tragen die Frisur G-G-GangstaHier gibt es nichts zu diskutierenSchick die Kids weg, weil Junkies ihre Spritzen hier verlierenKomm verpiss dich Junge, das ist ein GangsterdingMeine Freunde würden 50 Cent umbringen
+          <t>[Part 1]
+Ich hab Deutschrap kaputt gemacht
+Guck ich nehm Deutschrap den Rucksack ab
+Ich breche euch jetzt das Schulterblatt
+Zeig was Schuld dran hat, Ich bring den Gossensound
+Westberlin, Tempelhof, Komm her ich boxe drauf
+Das nenn ich Einlochmusik
+Und ich rappe nur vom Ghetto, Jetzt fällt der Vergleich auf Paris
+Das ist Aufstand, Wer schmeißt den Molotowcocktail
+Jetzt kommt mein Bezirk, jeder Ochse trägt Lonsdale
+Ghettorap hin, Ghettorap her
+Bin im Ghetto jetzt King, lauf im Ghetto weg Fler
+Schmeiß die Fuffies durch den Club
+Ich schmeiß Fünfhunderter in Müll
+Und ich bums mit deiner Mutter jetzt auf Pillen
+Bin ein Carlo Cokxxx Original
+Doch jetzt kommt Heavy Metal Payback
+Ich lass dich zittern wie dein Aidstest
+Ich hab das ganze Land hypnotisiert
+Und du öffnest diesem Psycho die Tür
+[Hook]
+Hier kommt der G-G-Gangsta
+Ich schreib mein Album über Nacht
+Nutte hier kommt Unterhaltung für den Knast
+Weil alles schwarz-metallic bleibt
+Ich bin der, der seine scharfe Knarre zeigt
+Hier kommt der G-G-Gangsta
+Ich renn vor Bullen nicht davon
+Ich will nur, dass mich die Bullen nicht bekommen
+Und dieser Scheiß pumpt krass
+Denn wir hören den Polizeifunk ab
+G-G-Gangsta
+[Part 2]
+Gangsterrap ist für mich langsam nur noch Freizeit
+Kein Scheiß, Ich überfall die Tanke ich will reich sein
+Skyline, war mein Ziel und ich habs gemacht
+Du hast lauter Scheine doch nicht G`s in deiner Nachbarschaft
+Menace to Society, Lederjacken, Weltmacht, Schwarzgeld
+Und das zählen macht mich hellwach
+Ein Koksschneemann, so was macht mir wieder Spaß
+In dir steckt ein Hund junge, so als wärst du Chinafraß
+Wer will mich dissen?
+Fler klingt beschissen
+Diss mich, ich werd auf den Erstbesten pissen
+Beef mit Deutschland, Schuld hab ich allein
+Häng mein Gold an die Wand wie der Sultan von Brunei
+Bass Sultan ist allein
+Er chillt mit seinem Kampfhund
+Interview? Keine Lust, Ich bin arrogant Punkt
+Und das Land pumpt Heavy Metal Payback
+Du bist nur im Lesben- oder Gaychat
+[Hook]
+[Part 3]
+Gangsta, weil mein größter Fan ein Asylant bleibt
+Kreuzberg, jetzt verrat mir deine Stadt du Landei
+Schöneberg, komm verrat mir deine Stadt du Landei
+Neuköln, kein Berlin, wir stecken den Schwanz rein
+Du bist kein Ghet-Ghet-Ghettopräsident
+Schau dich an du bist so fett, fett, fett Bass Sultan Hengzt
+Ich wollt bei diesem Album aufhören zu dissen
+Ich bin auf Viagra und ich soll jetzt aufhören zu ficken?
+Darf ich vorstellen: Das ist mein Schwanz, sag mal "Guten Tag"
+Und das ist Kay, er kommt ganz ohne Schule klar
+Ja meine Freunde haben Straßenabitur
+Unsre Haare wirken assi doch wir tragen die Frisur G-G-Gangsta
+Hier gibt es nichts zu diskutieren
+Schick die Kids weg, weil Junkies ihre Spritzen hier verlieren
+Komm verpiss dich Junge, das ist ein Gangsterding
+Meine Freunde würden 50 Cent umbringen
 [Hook]</t>
         </is>
       </c>
@@ -463,8 +530,65 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Part 1]Ein neues Album braucht doch Werbung Sido quatscht jeden vollIch quatsche nicht mit euch Hunden ich antworte nur mit GoldHunderte Schellen reichen nicht ich glaub ihr werdets nie begreifenDoch ich scheiß drauf Hunde die bellen beißen nichtGhetto hin Ghetto her Crack Speed Pep und mehr yeahEin volles Magazin das Sonny Black entleertUnd weil sie Grundlos reden nur um Hype zu griegenKlatsch ich euch Fotzen an die Wand als wärt ihr kleine FliegenIch hab Pitbulls im Kofferraum du SpastWenn du wirklich denkst du könntest mich locker haun dann machsDer Sound fickt die Straßen der Beat geht durch den BlockLeg ein Paar Lines auf meinem Spiegel und ich zieh mit deinen SnopsDeine Snops merkst du dir hat keiner was gebrachtAuf den Boden leg das Mic weg ich scheiß auf dich gut NachtGute Nacht klopf klopf der Gangster vor der TürMach dein Polosport und geh dein Studentenleben führn[Hook](x2)Hunderte Schellen reichen nicht du bist am Arsch du KindHunde die Bellen beißen nicht Berlin bleibt hartUnd die Bullen sind wieder heiß auf michMan jeden tag seh ich den gleichen MistIch sag dir was Hunde die bellen beißen nicht[Part 2]Jetzt kommt der Junge aus den Gangsterrap Araber KreisenHört auf zu bellen sagt mir wen wollt ihr Chihuahuas beißenÜber dein Untergang reden keine scheiß SpartanerSondern Araber über 300 MannMesser raus ich fight an Stressern auszuteilen macht mir SpaßJunge ich verticke Testo und werd reichDie Knarre bleibt geladen die Muster eingraviertHengzt Cataldi ich schenk dieser Schwuchtel ein KlavierStraßen Mukke du Tucke die Unterschicht schiebt HassMein Freund hier im Cafe will nur die Unterschrift im PassSie pumpen hier im Knast pumpen diesen Sound im BlockUnsere Feinde werden in Berlin wie Tiere ausgestopftAlso rede nicht zähle nicht auf was dich so störtDie Million mein Auto das Haus was mir gehörtHab mir selber alles aufgebautUnd weil du neidisch bist leg ich dir deine Leine anHunde die bellen beißen nicht
-[Hook][Part 3]Hier kommt der King der Street King Bushido bumst jeden RapperIch hab nix zu tun mit geschminkten JungsGangster oder nicht Hände weg es klicktHast du je nen AMG Mercedes Benz gelenkt du BitchWorld Trade Gangster S O doppel NZück die Base und ich werd die ganze Chefetage bangenPrimitiv und krass keinerlei NiveauWenn ich sage es wird ein Nuttenkind mein ich dein SohnDu brauchst nicht künstlich deine Zähne hier zusammen beißenUnd selbst beim Beef wird der nächste nach zur Stange greifenIch bleib ein Wolf weil ich dich Schaaf jageDas ist ein Golf den ich am Arm trageErsguterjunge 13 SoldatenWir werden deine Eingangstür einfach zerschlagenDu hast ne große Schnauze glaub mir das reicht hier nichtScheiß auf dich du Keck man Hunde die bellen beißen nicht</t>
+          <t>[Part 1]
+Ein neues Album braucht doch WerbungSido quatscht jeden voll
+Ich quatsche nicht mit euch Hunden ich antworte nur mit Gold
+Hunderte Schellen reichen nicht ich glaub ihr werdets nie begreifen
+Doch ich scheiß drauf Hunde die bellen beißen nicht
+Ghetto hin Ghetto her Crack Speed Pep und mehr yeah
+Ein volles Magazin das Sonny Black entleert
+Und weil sie Grundlos reden nur um Hype zu griegen
+Klatsch ich euch Fotzen an die Wand als wärt ihr kleine Fliegen
+Ich hab Pitbulls im Kofferraum du Spast
+Wenn du wirklich denkst du könntest mich locker haun dann machs
+Der Sound fickt die Straßen der Beat geht durch den Block
+Leg ein Paar Lines auf meinem Spiegel und ich zieh mit deinen Snops
+Deine Snops merkst du dir hat keiner was gebracht
+Auf den Boden leg das Mic weg ich scheiß auf dich gut Nacht
+Gute Nacht klopf klopf der Gangster vor der Tür
+Mach dein Polosport und geh dein Studentenleben führn
+[Hook](x2)
+Hunderte Schellen reichen nicht du bist am Arsch du Kind
+Hunde die Bellen beißen nicht Berlin bleibt hart
+Und die Bullen sind wieder heiß auf mich
+Man jeden tag seh ich den gleichen Mist
+Ich sag dir was Hunde die bellen beißen nicht
+[Part 2]
+Jetzt kommt der Junge aus den Gangsterrap Araber Kreisen
+Hört auf zu bellen sagt mir wen wollt ihr Chihuahuas beißen
+Über dein Untergang reden keine scheiß Spartaner
+Sondern Araber über 300 Mann
+Messer raus ich fight an Stressern auszuteilen macht mir Spaß
+Junge ich verticke Testo und werd reich
+Die Knarre bleibt geladen die Muster eingraviert
+Hengzt Cataldiich schenk dieser Schwuchtel ein Klavier
+Straßen Mukke du Tucke die Unterschicht schiebt Hass
+Mein Freund hier im Cafe will nur die Unterschrift im Pass
+Sie pumpen hier im Knast pumpen diesen Sound im Block
+Unsere Feinde werden in Berlin wie Tiere ausgestopft
+Also rede nicht zähle nicht auf was dich so stört
+Die Million mein Auto das Haus was mir gehört
+Hab mir selber alles aufgebaut
+Und weil du neidisch bist leg ich dir deine Leine an
+Hunde die bellen beißen nicht
+[Hook]
+[Part 3]
+Hier kommt der King der Street King Bushido bumst jeden Rapper
+Ich hab nix zu tun mit geschminkten Jungs
+Gangster oder nicht Hände weg es klickt
+Hast du je nen AMG Mercedes Benz gelenkt du Bitch
+World Trade Gangster S O doppel N
+Zück die Base und ich werd die ganze Chefetage bangen
+Primitiv und krass keinerlei Niveau
+Wenn ich sage es wird ein Nuttenkind mein ich dein Sohn
+Du brauchst nicht künstlich deine Zähne hier zusammen beißen
+Und selbst beim Beef wird der nächste nach zur Stange greifen
+Ich bleib ein Wolf weil ich dich Schaaf jage
+Das ist ein Golf den ich am Arm trage
+Ersguterjunge 13 Soldaten
+Wir werden deine Eingangstür einfach zerschlagen
+Du hast ne große Schnauze glaub mir das reicht hier nicht
+Scheiß auf dich du Keck man Hunde die bellen beißen nicht</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,10 +642,126 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Intro]Das sind die Stimmen aus dem Ghetto, doch ihr wollt sie nicht hörenDiese Sonnenbrille schützt mich gegen euer BlaulichtYeah, ich bin asozial und steh auch dazuKing Bushido!Junge, Deutschland braucht mich![Part 1]Ich bin so Ghetto, so Ghetto, ich komm'Komm' bring die Tausender her, bleib jetzt der Sheriff im GhettoAuf meiner Haube der SternDer kriminellste Rapper, Schlagzeilen bundesweitStaatsfeind Nr.1, hart beim HundefightWenn der Mond in dein Ghetto kracht, bleibt coolIch mach im Endeffekt das was ein Hai tutFressen um zu überlebenWas seid ihr für harte Gangstarapper?Ich möchte Action und nicht drüber redenIch bleibe Ghetto, weil ich hart rapp' und draufballer, draufballerIch hoff', dass Mark Medlock auswandertIch hab die Straße hier, Rap für den ZellenblockDu kannst jeden abziehen, doch kein' kriminellen KopfDas sind wie Ohrfeigen, ich brenn wie KerosinHör die Straßenmelodie ( Dam Dam Dam Dam )Ich glaub ihr hört uns nichtKeiner will uns zuhörenJeder möchte nur noch unsere Wut hör'n. Yeah!
-[Hook](x2)Sag mir hörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, so Ghetto, so GhettoHörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )Wieso wollt ihr nicht hören?Sag mir hörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, so Ghetto, so GhettoHörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, So Ghetto[Part 2]Ich bin so Ghetto, so Ghetto, du kommstKommst hier nicht raus ohne PassDas hier wird nie deine WeltHier sagt man: Schnauze du SpastMan sagt Geschmäcker sind verschieden, doch seit AugenblickBin ich halt ein Rapper zum Verlieben (K-K-K-K-K King Bushido)Der Gangstatrend, plus meine GangstaclipsGuck Zeiten ändern sich!Den Mercedes-Benz fahr ichIch zieh die breitere Masse, Sido es gibt nur einen KingDu bist der Falsche mit der eisernen MaskeGhetto, ich bleib RepräsentantBin nicht nachtragend Papa, ich reich dir meine HandDas ist Heavy zum MetalHengzt Payback, ihr BäckerWir sind Gangsta, die Fenster mit der Basy zerschmetternDie ganzen Ghettokids sind drauf am TilidinHör die Straßenmelodie! ( Dam Dam Dam Dam )Ihr seid so blind vor Hass, keiner will uns zuhörenUnsere Hunde bellen, du kannst die Wut hören
-[Hook](x2)Sag mir hörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, so Ghetto, so GhettoHörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )Wieso wollt ihr nicht hören?Sag mir hörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, so Ghetto, so GhettoHörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, So Ghetto[Part 3]Ich bin so Ghetto, so Ghetto, du kommstKommst über Nacht in den KnastUnd das bedeutet auf Deutsch: Du übernachtest im Knast!Keine Information, sie woll'n dein' Namen und AlterIch hab die Trends hier gesetztCordon, Picaldi und AlphaLass sie reden und redenEs heißt geben und nehmenDu willst mich sehenDann musst du den Garten Eden betretenIch weiß du glaubst an RechtUnd glaubst an das GesetzWarum hat mich dein Gesetz noch nicht in den Knast gesteckt?Ich mach der Deutschrapszene klar wer jetzt regiertFicke jetzt im Deutschrap jeden, der noch existiertKarten raus und GeldDein Kartenhaus zerfälltDie Bushidostatue hab ich Lust im Garten aufzustellenDein Sarg ist schon bestelltFicke nicht mit diesem GHör die Ghettomelodie! ( Dam Dam Dam Dam )Das Ghetto spricht du solltest zuhörenUnd dein letztes Mal kannst du jetzt diese Wut hören. Yeah!
-[Hook](x2)Sag mir hörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, so Ghetto, so GhettoHörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )Wieso wollt ihr nicht hören?Sag mir hörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, so Ghetto, so GhettoHörst du die? ( Da Da Da Dam )Hörst du die? ( Da Da Da Dam )Hörst du das? ( Da Da Da Dam )So Ghetto, So Ghetto</t>
+          <t>[Intro]
+Das sind die Stimmen aus dem Ghetto, doch ihr wollt sie nicht hören
+Diese Sonnenbrille schützt mich gegen euer Blaulicht
+Yeah, ich bin asozial und steh auch dazu
+King Bushido!
+Junge, Deutschland braucht mich!
+[Part 1]
+Ich bin so Ghetto, so Ghetto, ich komm'
+Komm' bring die Tausender her, bleib jetzt der Sheriff im Ghetto
+Auf meiner Haube der Stern
+Der kriminellste Rapper, Schlagzeilen bundesweitStaatsfeind Nr.1, hart beim Hundefight
+Wenn der Mond in dein Ghetto kracht, bleibt cool
+Ich mach im Endeffekt das was ein Hai tut
+Fressen um zu überleben
+Was seid ihr für harte Gangstarapper?
+Ich möchte Action und nicht drüber reden
+Ich bleibe Ghetto, weil ich hart rapp' und draufballer, draufballer
+Ich hoff', dass Mark Medlock auswandert
+Ich hab die Straße hier, Rap für den Zellenblock
+Du kannst jeden abziehen, doch kein' kriminellen Kopf
+Das sind wie Ohrfeigen, ich brenn wie Kerosin
+Hör die Straßenmelodie ( Dam Dam Dam Dam )
+Ich glaub ihr hört uns nicht
+Keiner will uns zuhören
+Jeder möchte nur noch unsere Wut hör'n. Yeah!
+[Hook](x2)
+Sag mir hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, so Ghetto, so Ghetto
+Hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+Wieso wollt ihr nicht hören?
+Sag mir hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, so Ghetto, so Ghetto
+Hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, So Ghetto
+[Part 2]
+Ich bin so Ghetto, so Ghetto, du kommst
+Kommst hier nicht raus ohne Pass
+Das hier wird nie deine Welt
+Hier sagt man: Schnauze du Spast
+Man sagt Geschmäcker sind verschieden, doch seit Augenblick
+Bin ich halt ein Rapper zum Verlieben (K-K-K-K-K King Bushido)
+Der Gangstatrend, plus meine Gangstaclips
+Guck Zeiten ändern sich!
+Den Mercedes-Benz fahr ich
+Ich zieh die breitere Masse,Sido es gibt nur einen KingDu bist der Falsche mit der eisernen Maske
+Ghetto, ich bleib Repräsentant
+Bin nicht nachtragend Papa, ich reich dir meine Hand
+Das ist Heavy zum Metal
+Hengzt Payback, ihr Bäcker
+Wir sind Gangsta, die Fenster mit der Basy zerschmettern
+Die ganzen Ghettokids sind drauf am Tilidin
+Hör die Straßenmelodie! ( Dam Dam Dam Dam )
+Ihr seid so blind vor Hass, keiner will uns zuhören
+Unsere Hunde bellen, du kannst die Wut hören
+[Hook](x2)
+Sag mir hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, so Ghetto, so Ghetto
+Hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+Wieso wollt ihr nicht hören?
+Sag mir hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, so Ghetto, so Ghetto
+Hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, So Ghetto
+[Part 3]
+Ich bin so Ghetto, so Ghetto, du kommst
+Kommst über Nacht in den Knast
+Und das bedeutet auf Deutsch: Du übernachtest im Knast!
+Keine Information, sie woll'n dein' Namen und Alter
+Ich hab die Trends hier gesetzt
+Cordon, Picaldi und Alpha
+Lass sie reden und reden
+Es heißt geben und nehmen
+Du willst mich sehen
+Dann musst du den Garten Eden betreten
+Ich weiß du glaubst an Recht
+Und glaubst an das Gesetz
+Warum hat mich dein Gesetz noch nicht in den Knast gesteckt?
+Ich mach der Deutschrapszene klar wer jetzt regiert
+Ficke jetzt im Deutschrap jeden, der noch existiert
+Karten raus und Geld
+Dein Kartenhaus zerfällt
+Die Bushidostatue hab ich Lust im Garten aufzustellen
+Dein Sarg ist schon bestellt
+Ficke nicht mit diesem G
+Hör die Ghettomelodie! ( Dam Dam Dam Dam )
+Das Ghetto spricht du solltest zuhören
+Und dein letztes Mal kannst du jetzt diese Wut hören. Yeah!
+[Hook](x2)
+Sag mir hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, so Ghetto, so Ghetto
+Hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+Wieso wollt ihr nicht hören?
+Sag mir hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, so Ghetto, so Ghetto
+Hörst du die? ( Da Da Da Dam )
+Hörst du die? ( Da Da Da Dam )
+Hörst du das? ( Da Da Da Dam )
+So Ghetto, So Ghetto</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,8 +815,64 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Hook: Bushido &amp; Nyze]Sag mir siehst du wie die Träne fällt? Sie klatscht auf den BodenIch fühle mich im Knast so verlorenJunge siehst du wie die Träne läuft?Sie tropft auf Papier, wie sitzen hier im Loch wegen dirSag mir siehst du wie die Träne fällt? Sie klatscht auf den BodenIch fühle mich im Knast so verlorenJunge siehst du wie die Träne läuft?Sie tropft auf Papier, wie sitzen hier im Loch wegen dir[Part 1: Bushido]Ich schreib mit Blut hier diesen Brief, und ich hoff' dir geht es gutLass die Taube fliegen, hier aus dem geschlossenem VollzugLies mal weiter! Nein man, das bist du uns beiden schuldigWarum sagst du, einfach allen, wir sind beide schuldig?Warum tust du, so als würdest du uns nicht mehr kennen?Ja am Anfang, war ich noch dein Bruder, ich erkenn'Dich jetzt nicht mehr, guck wo du uns reingeritten hastHab keine Kraft, ich bleib allein, ich kack hier ab (Kack hier ab)Geht's dir gut? Geniest du's jetzt im Geld zu schwimmen?Dann geb es aus solang du kannst, dieses Geld hier stinktSag war's das wert, uns dafür im Knast zu sehen?Man hätt' ich das geahnt, ich hätt' dir meinen Teil abgegebenSag mir schläfst du wirklich gut, in deinem weichem Bett?Ich schlaf nicht wirklich gut, auf diesem weißem BrettIch dachte grade, wir drei könnten uns vertrauenDenk' zurück, man, wir schwänzen sogar Schule um zu klauenEs ist schon traurig, wenn man wegen Geld vergisstMerkst du grade nicht, dass du dich selber fickst?Doch wir wünschen dir das Beste, dass du ein Leben Lang gesund bleibstIn Liebe Anis und Nyze
-[Hook: Bushido &amp; Nyze][Part 2: Nyze]Ja sie erzählen uns dir geht es gutUnd ich lese schon 6mal das selbe BuchSchlag es zu, und verfluch'sBoxen uns die Knöchel wundUnd das Blut läuft von der grauen Wand, du legst uns Wörter in den MundErzähl ruhig weiter deine Lügen SpaßtDoch der Tag kommt, an dem selbst du nicht mehr lügen kannstSieh uns an, du siehst dannUnsere Träume sind geficktIn diesen Räumen ohne LichtVon falschen Freunden geficktUnsere Freude ist ersticktWie die Kerze auf dem TischImmer wieder treibt die Wut uns die Schmerzen ins GesichtUnd du warst wie Familie für mich, zu dieser ZeitUnd wie früher, wird alles geteilt, aber nur durch 2Und ich hab's dir prophezeitHab gesagt lass dir ne Woche ZeitBevor du das Geld jeder Fotze zeigstDoch du warst gierig, und uns zu ficken und dein Arsch zu rettenWar nicht schwierigDu willst nicht kapieren? Dann kapier's nicht!Du existierst nicht du interessierst mich nicht mehrUnd der Typ in deinem Spiegel respektiert dich nicht mehrDoch wir wünschen dir das Beste, dass du ein leben Lang gesund bleibstIn Liebe Anis und Nyze
+          <t>[Hook: Bushido &amp; Nyze]
+Sag mir siehst du wie die Träne fällt? Sie klatscht auf den Boden
+Ich fühle mich im Knast so verloren
+Junge siehst du wie die Träne läuft?
+Sie tropft auf Papier, wie sitzen hier im Loch wegen dir
+Sag mir siehst du wie die Träne fällt? Sie klatscht auf den Boden
+Ich fühle mich im Knast so verloren
+Junge siehst du wie die Träne läuft?
+Sie tropft auf Papier, wie sitzen hier im Loch wegen dir
+[Part 1: Bushido]
+Ich schreib mit Blut hier diesen Brief, undich hoff' dir geht es gut
+Lass die Taube fliegen, hier aus dem geschlossenem Vollzug
+Lies mal weiter! Nein man, das bist du uns beiden schuldig
+Warum sagst du, einfach allen, wir sind beide schuldig?
+Warum tust du, so als würdest du uns nicht mehr kennen?
+Ja am Anfang, war ich noch dein Bruder, ich erkenn'
+Dich jetzt nicht mehr, guck wo du uns reingeritten hast
+Hab keine Kraft, ich bleib allein, ich kack hier ab (Kack hier ab)
+Geht's dir gut? Geniest du's jetzt im Geld zu schwimmen?
+Dann geb es aus solang du kannst, dieses Geld hier stinkt
+Sag war's das wert, uns dafür im Knast zu sehen?
+Man hätt' ich das geahnt, ich hätt' dir meinen Teil abgegeben
+Sag mir schläfst du wirklich gut, in deinem weichem Bett?
+Ich schlaf nicht wirklich gut, auf diesem weißem Brett
+Ich dachte grade, wir drei könnten uns vertrauen
+Denk' zurück, man, wir schwänzen sogar Schule um zu klauen
+Es ist schon traurig, wenn man wegen Geld vergisst
+Merkst du grade nicht, dass du dich selber fickst?
+Doch wir wünschen dir das Beste, dass du ein Leben Lang gesund bleibst
+In Liebe Anis und Nyze
+[Hook: Bushido &amp; Nyze]
+[Part 2: Nyze]
+Ja sie erzählen uns dir geht es gut
+Und ich lese schon 6mal das selbe Buch
+Schlag es zu, und verfluch's
+Boxen uns die Knöchel wund
+Und das Blut läuft von der grauen Wand, du legst uns Wörter in den Mund
+Erzähl ruhig weiter deine Lügen Spaßt
+Doch der Tag kommt, an dem selbst du nicht mehr lügen kannst
+Sieh uns an, du siehst dann
+Unsere Träume sind gefickt
+In diesen Räumen ohne Licht
+Von falschen Freunden gefickt
+Unsere Freude ist erstickt
+Wie die Kerze auf dem Tisch
+Immer wieder treibt die Wut uns die Schmerzen ins Gesicht
+Und du warst wie Familie für mich, zu dieser Zeit
+Und wie früher, wird alles geteilt, aber nur durch 2
+Und ich hab's dir prophezeit
+Hab gesagt lass dir ne Woche Zeit
+Bevor du das Geld jeder Fotze zeigst
+Doch du warst gierig, und uns zu ficken und dein Arsch zu retten
+War nicht schwierig
+Du willst nicht kapieren? Dann kapier's nicht!
+Du existierst nicht du interessierst mich nicht mehr
+Und der Typ in deinem Spiegel respektiert dich nicht mehr
+Doch wir wünschen dir das Beste, dass du ein leben Lang gesund bleibst
+In Liebe Anis und Nyze
 [Hook: Bushido &amp; Nyze]</t>
         </is>
       </c>
@@ -631,10 +927,95 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Intro]Ich erlebe in diesen Tagen, dass viele Menschen mir sagenEs ist wichtig, dass auch das was die schweigende Mehrheit in Deutschland denktGesagt wirdWir müssen zur Kenntnis nehmen, dass die Hälfte aller StraftatenDie körperliche Gewalt gegen andere beinhaltenVon Menschen unter 21 Jahren begangen werden in DeutschlandUnd das die hälfte der Täter, Täter mit einem Migrationshintergrund sind (sind, sind)[Part 1]YeahDieses Land hier hat mich groß gezogenDoch ich werd hier so behandelt man als hätt' ich von Soldaten Munition gestohlenNur weil du auf meinem Pass keinen Adler siehstIch dachte dass für eure Freiheit der Adler fliegtEs war doch Einigkeit, Recht und die FreiheitSag mir, hab ich nicht das Recht, lasst mich frei seinFrei sein, so wie der Vogel der fliegtDoch ihr schickt mich gerade direkt zu den Toten im KriegSag, was hab ich falsch gemacht, ich wollt nur glücklich seinUnd der Gedanke zu verschwinden erdrückt mich gleichWas wird aus meinen Freunden, die bald vor Sorge sterbenWas wird aus mir, wer zieht ihn raus, diesen Dorn im HerzenHört auf mir vorzuwerfen, dass ich vorbestraft binBegeht ein Deutscher dasselbe ist der Staat blindUnd bis die Klingel bei euch Spinner läutetGeh ich zurück wo es Bomben regnet und der Himmel leuchtet
-[Hook]Ich soll in den Flieger reinVerdammt ihr schickt mich in das Land wo die Menschen in den Kriegen leidenIch soll in den Flieger reinIch hab Mama doch versprochen sie müsste nie wieder weinenIch soll in den Flieger reinIch bin seit 10 verfluchten Jahren hier, ihr schickt mich jetzt wieder heimIch soll in den Flieger reinUnd ihr schickt mich in die Krise rein, ich steig in den Flieger ein..[Part 2]Die Polizei bleibt mein Freund und HelferDenn sie half mir beim Packen der Klamotten, Mama weint doch sie betreuen die ElternUnd auch das Taxi Geld hier brauchst du nichtDu wirst gefahren vielen Dank es war so wunderschön, Blau das LichtEs ist ein Augenblick, der dir das Leben nimmtSag kennst du das Gefühl wenn gerade zu die Ehre singtWenn ein Mann voller Würde schon in Tränen schwimmtSiehst du diesen Plattenbau ich hab da schon gelebt als KindSiehst du den Fußballplatz, damals war ich gerade achtUnd dieser Stürmer wurd' in diesem Block zum Star gemachtWir waren hier Tag und Nacht, Tag und Nacht mit meinen FreundenMan ich bin hier groß geworden ihr verscheucht hier einen DeutschenKlar hab ich Mist gebaut doch wer war als Kind schon reifDie deutsche Sprache gleich zu lernen ist bestimmt nicht leichtDa kommst du plötzlich in die Klasse und wirst schikaniertKlar wirst du aggressiv was wollt ihr Ficker hier
-[Hook]Ich soll in den Flieger reinVerdammt ihr schickt mich in das Land wo die Menschen in den Kriegen leidenIch soll in den Flieger reinIch hab Mama doch versprochen sie müsste nie wieder weinenIch soll in den Flieger reinIch bin seit 10 verfluchten Jahren hier, ihr schickt mich jetzt wieder heimIch soll in den Flieger reinUnd ihr schickt mich in die Krise rein, ich steig in den Flieger ein..[Part 3]Und ich blicke aus dem Fenster rausIch hab geschworen ich werd nich' weinenDoch es geht nicht ich schau runter und erkenn mein HausDie Maschine steigt, Berlin wird immer kleinerDie zweite Träne kommt man Berlin war meine HeimatIch denk zurück, wir waren immer jung und frohUnd das Taschentuch beweist die Erinnerung kommt hochDas Taschentuch beweist dass ich einer war von euchEin Pass ist nur Papier, doch entscheidet wer ist deutschJetzt erklär mir die GerechtigkeitUnsere Welt gehört nur Gott und nicht dem StaatDoch der Staat will zu mächtig seinIch sitz' im Flieger drin, ich flieg doch zerbreche gleichUnd der Richter schweigt , weil das Gesetz schon reichtIch hab die beste zeit, die Jugend hab ich hier verbrachtIch bleib ein Scheißkanacke den man so erniedrigt hatUnd bitte sag mir nicht, dass Krieg das allerschlimmste istIhr schickt mich da hin wo es am schlimmsten ist
-[Hook]Ich soll in den Flieger reinVerdammt ihr schickt mich in das Land wo die Menschen in den Kriegen leidenIch soll in den Flieger reinIch hab Mama doch versprochen sie müsste nie wieder weinenIch soll in den Flieger reinIch bin seit 10 verfluchten Jahren hier, ihr schickt mich jetzt wieder heimIch soll in den Flieger reinUnd ihr schickt mich in die Krise rein, ich steig in den Flieger ein..</t>
+          <t>[Intro]
+Ich erlebe in diesen Tagen, dass viele Menschen mir sagen
+Es ist wichtig, dass auch das was die schweigende Mehrheit in Deutschland denkt
+Gesagt wird
+Wir müssen zur Kenntnis nehmen, dass die Hälfte aller Straftaten
+Die körperliche Gewalt gegen andere beinhalten
+Von Menschen unter 21 Jahren begangen werden in Deutschland
+Und das die hälfte der Täter, Täter mit einem Migrationshintergrund sind (sind, sind)
+[Part 1]
+Yeah
+Dieses Land hier hat mich groß gezogen
+Doch ich werd hier so behandelt man als hätt' ich von Soldaten Munition gestohlen
+Nur weil du auf meinem Pass keinen Adler siehst
+Ich dachte dass für eure Freiheit der Adler fliegt
+Es war doch Einigkeit, Recht und die Freiheit
+Sag mir, hab ich nicht das Recht, lasst mich frei sein
+Frei sein, so wie der Vogel der fliegt
+Doch ihr schickt mich gerade direkt zu den Toten im Krieg
+Sag, was hab ich falsch gemacht, ich wollt nur glücklich sein
+Und der Gedanke zu verschwinden erdrückt mich gleich
+Was wird aus meinen Freunden, die bald vor Sorge sterben
+Was wird aus mir, wer zieht ihn raus, diesen Dorn im Herzen
+Hört auf mir vorzuwerfen, dass ich vorbestraft bin
+Begeht ein Deutscher dasselbe ist der Staat blind
+Und bis die Klingel bei euch Spinner läutet
+Geh ich zurück wo es Bomben regnet und der Himmel leuchtet
+[Hook]
+Ich soll in den Flieger rein
+Verdammt ihr schickt mich in das Land wo die Menschen in den Kriegen leiden
+Ich soll in den Flieger rein
+Ich hab Mama doch versprochen sie müsste nie wieder weinen
+Ich soll in den Flieger rein
+Ich bin seit 10 verfluchten Jahren hier, ihr schickt mich jetzt wieder heim
+Ich soll in den Flieger rein
+Und ihr schickt mich in die Krise rein, ich steig in den Flieger ein..
+[Part 2]
+Die Polizei bleibt mein Freund und Helfer
+Denn sie half mir beim Packen der Klamotten, Mama weint doch sie betreuen die Eltern
+Und auch das Taxi Geld hier brauchst du nicht
+Du wirst gefahren vielen Dank es war so wunderschön, Blau das Licht
+Es ist ein Augenblick, der dir das Leben nimmt
+Sag kennst du das Gefühl wenn gerade zu die Ehre singt
+Wenn ein Mann voller Würde schon in Tränen schwimmt
+Siehst du diesen Plattenbau ich hab da schon gelebt als Kind
+Siehst du den Fußballplatz, damals war ich gerade acht
+Und dieser Stürmer wurd' in diesem Block zum Star gemacht
+Wir waren hier Tag und Nacht, Tag und Nacht mit meinen Freunden
+Man ich bin hier groß geworden ihr verscheucht hier einen Deutschen
+Klar hab ich Mist gebaut doch wer war als Kind schon reif
+Die deutsche Sprache gleich zu lernen ist bestimmt nicht leicht
+Da kommst du plötzlich in die Klasse und wirst schikaniert
+Klar wirst du aggressiv was wollt ihr Ficker hier
+[Hook]
+Ich soll in den Flieger rein
+Verdammt ihr schickt mich in das Land wo die Menschen in den Kriegen leiden
+Ich soll in den Flieger rein
+Ich hab Mama doch versprochen sie müsste nie wieder weinen
+Ich soll in den Flieger rein
+Ich bin seit 10 verfluchten Jahren hier, ihr schickt mich jetzt wieder heim
+Ich soll in den Flieger rein
+Und ihr schickt mich in die Krise rein, ich steig in den Flieger ein..
+[Part 3]
+Und ich blicke aus dem Fenster raus
+Ich hab geschworen ich werd nich' weinen
+Doch es geht nicht ich schau runter und erkenn mein Haus
+Die Maschine steigt, Berlin wird immer kleiner
+Die zweite Träne kommt man Berlin war meine Heimat
+Ich denk zurück, wir waren immer jung und froh
+Und das Taschentuch beweist die Erinnerung kommt hoch
+Das Taschentuch beweist dass ich einer war von euch
+Ein Pass ist nur Papier, doch entscheidet wer ist deutsch
+Jetzt erklär mir die Gerechtigkeit
+Unsere Welt gehört nur Gott und nicht dem Staat
+Doch der Staat will zu mächtig sein
+Ich sitz' im Flieger drin, ich flieg doch zerbreche gleich
+Und der Richter schweigt , weil das Gesetz schon reicht
+Ich hab die beste zeit, die Jugend hab ich hier verbracht
+Ich bleib ein Scheißkanacke den man so erniedrigt hat
+Und bitte sag mir nicht, dass Krieg das allerschlimmste ist
+Ihr schickt mich da hin wo es am schlimmsten ist
+[Hook]
+Ich soll in den Flieger rein
+Verdammt ihr schickt mich in das Land wo die Menschen in den Kriegen leiden
+Ich soll in den Flieger rein
+Ich hab Mama doch versprochen sie müsste nie wieder weinen
+Ich soll in den Flieger rein
+Ich bin seit 10 verfluchten Jahren hier, ihr schickt mich jetzt wieder heim
+Ich soll in den Flieger rein
+Und ihr schickt mich in die Krise rein, ich steig in den Flieger ein..</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -688,9 +1069,72 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Hook](x2)Ganz egal woher du kommstGanz egal wer du auch bistDu bleibst geficktDenn ab heute bist du vogelfreiMir geht's schon lange nicht mehr darum wer gut rapptJetzt kommt Regel Nummer 1: Man fickt nie mit Sonny Black[Part 1]Ganz egal wohin wir gehen wir tragen Lederjacken, ZahnstocherDoch wir sind zu viele, über 10 Kanaken, frag BoxerEs wird Mitternacht, splitternackt liegst du dranUnd dass ich ein Schläger bin, wusste auch schon Viva BamsIch bin so krass gehyped doch Scheine brauch ich mehrHab mein Führerschein zurück und hab mein Scheiß daraus gelerntWer ich bin? Muss ich das wirklich noch beantworten?Deine Frau will vögeln und ich kann dir meine Hand borgenIch heiß nicht Sunny sondern Sonny und will wissen wo du wohnstDu kleiner Bastard deine Mami trägt nen PonyWer lacht zuletzt du Bastard, leckstJetzt meine Schuhe, Mach paar Faxen und wir klatschen jetztAuch deine HureJunge kein Problem, hier kommen Gangster aus der Gosse KumpelJetzt denk an Regel Nummer 1 und dein Block wird dunkelIch kill die Konkurrenz plus du wirst gekillt du BitchIch schieß dir Kugeln in den Bauch wie bei nem BillardtischDartscheibe, Junge ich ziel auf dich und treff die MitteTreff die Nase, treff die Lippe, treff die Zähne, treff die BrückeGut geraten du scheiß Miststück, ich komme jetztMerk dir eins: Fick nicht mit Sonny Black
-[Hook](x2)Ganz egal woher du kommstGanz egal wer du auch bistDu bleibst geficktDenn ab heute bist du vogelfreiMir geht's schon lange nicht mehr darum wer gut rapptJetzt kommt Regel Nummer 2: Sonny Black fickt das Gesetz[Part 2]Ganz egal wie sehr du muckst ich lass dich groß reden, rowlIch bums dein Rapperoutfit das hier nennt man TotschlägerflowIhr bleibt Hollywood für arme KeckoIch werf dich jetzt an deinen Haaren durch mein StraßenghettoIch bleib der Star im GhettoIch bleib der SuperstarPoster gibt's im SupermarktErsguterjunge, mach doch mit bei meiner Crew, BoobaJa sie reden weil sie nur noch Langeweile habenScheiß auf Rap ich will deinen Kopf durch eine Scheibe schlagenKümmer dich um deine AngelegenheitenSchluck dein Anabol, denkst du jede Kante kann auch fighten?Bist du akzeptiert? Du bleibst homosexuellFick auf deutsche Rapper werdet erst mal so krass wie JoelSo müde, müde von der Scheiße, die du bringstUnd ab heute nenn mich bitte Herr Baron Bushido KingAuf diesen Gangster hat der Untergrund gewartetDu kannst beten, ich bin der, der deine Mutter bumst und amenIch scheiß auf East und West, Hier geht's nur um mies und freshWarum ich jetzt brenne Junge ich hab das Benzin geschmecktErstaunlich wie ich dein Gesicht mit ner Bombe brechMerk dir eins: Fick nicht mit Sonny Black
-[Hook](x2)Ganz egal woher du kommstGanz egal wer du auch bistDu bleibst geficktDenn ab heute bist du vogelfreiMir geht's schon lange nicht mehr darum wer gut rapptJetzt kommt Regel Nummer 3: Sonny Black ist Sonny Black</t>
+          <t>[Hook](x2)
+Ganz egal woher du kommst
+Ganz egal wer du auch bist
+Du bleibst gefickt
+Denn ab heute bist du vogelfrei
+Mir geht's schon lange nicht mehr darum wer gut rappt
+Jetzt kommt Regel Nummer 1: Man fickt nie mit Sonny Black
+[Part 1]
+Ganz egal wohin wir gehen wir tragen Lederjacken, Zahnstocher
+Doch wir sind zu viele, über 10 Kanaken, frag Boxer
+Es wird Mitternacht, splitternackt liegst du dran
+Und dass ich ein Schläger bin, wusste auch schon Viva Bams
+Ich bin so krass gehyped doch Scheine brauch ich mehr
+Hab mein Führerschein zurück und hab mein Scheiß daraus gelernt
+Wer ich bin? Muss ich das wirklich noch beantworten?
+Deine Frau will vögeln und ich kann dir meine Hand borgen
+Ich heiß nicht Sunny sondern Sonny und will wissen wo du wohnst
+Du kleiner Bastard deine Mami trägt nen Pony
+Wer lacht zuletzt du Bastard, leckst
+Jetzt meine Schuhe, Mach paar Faxen und wir klatschen jetzt
+Auch deine Hure
+Junge kein Problem, hier kommen Gangster aus der Gosse Kumpel
+Jetzt denk an Regel Nummer 1 und dein Block wird dunkel
+Ich kill die Konkurrenz plus du wirst gekillt du Bitch
+Ich schieß dir Kugeln in den Bauch wie bei nem Billardtisch
+Dartscheibe, Junge ich ziel auf dich und treff die Mitte
+Treff die Nase, treff die Lippe, treff die Zähne, treff die Brücke
+Gut geraten du scheiß Miststück, ich komme jetzt
+Merk dir eins: Fick nicht mit Sonny Black
+[Hook](x2)
+Ganz egal woher du kommst
+Ganz egal wer du auch bist
+Du bleibst gefickt
+Denn ab heute bist du vogelfrei
+Mir geht's schon lange nicht mehr darum wer gut rappt
+Jetzt kommt Regel Nummer 2: Sonny Black fickt das Gesetz
+[Part 2]
+Ganz egal wie sehr du muckst ich lass dich groß reden, rowl
+Ich bums dein Rapperoutfit das hier nennt man Totschlägerflow
+Ihr bleibt Hollywood für arme Kecko
+Ich werf dich jetzt an deinen Haaren durch mein Straßenghetto
+Ich bleib der Star im Ghetto
+Ich bleib der Superstar
+Poster gibt's im Supermarkt
+Ersguterjunge, mach doch mit bei meiner Crew, Booba
+Ja sie reden weil sie nur noch Langeweile haben
+Scheiß auf Rap ich will deinen Kopf durch eine Scheibe schlagen
+Kümmer dich um deine Angelegenheiten
+Schluck dein Anabol, denkst du jede Kante kann auch fighten?
+Bist du akzeptiert? Du bleibst homosexuell
+Fick auf deutsche Rapper werdet erst mal so krass wie Joel
+So müde, müde von der Scheiße, die du bringst
+Und ab heute nenn mich bitte Herr Baron Bushido King
+Auf diesen Gangster hat der Untergrund gewartet
+Du kannst beten, ich bin der, der deine Mutter bumst und amen
+Ich scheiß auf East und West, Hier geht's nur um mies und fresh
+Warum ich jetzt brenne Junge ich hab das Benzin geschmeckt
+Erstaunlich wie ich dein Gesicht mit ner Bombe brech
+Merk dir eins: Fick nicht mit Sonny Black
+[Hook](x2)
+Ganz egal woher du kommst
+Ganz egal wer du auch bist
+Du bleibst gefickt
+Denn ab heute bist du vogelfrei
+Mir geht's schon lange nicht mehr darum wer gut rappt
+Jetzt kommt Regel Nummer 3: Sonny Black ist Sonny Black</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -744,9 +1188,63 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Part1:]Ich war damals viel zu jung dafür man hatte noch kein Plan vom BusinessDachte ich mach jetzt mit Rap mein Geld weil sonst der Tag gefickt istAggro Business, man damals gabs noch keine Aggro BitchesDacht nur ich wär Aggro wichtig fast wurd ich brutal vernichtetMir wurd die Chance gegeben plus ich hab mein Wort gegebenTrends gesetzt denn nur durch mich war plötzlich Cordon Sport am LebenVerdammt man nur durch mich war plötzlich auch der Block am LebenDurch Bushido war im Rapgeschäfft dann auch Gesocks vertretenFür euch wars selbstverständlich Halil ich habs rausgefundenSelbstverständlich Fler und mich für ein bisschen Patte auszunutzenWir warn so unerfahren 1000 scheiß Versprechen hier2000 scheiß Versprechen da und wir wurden durch rappen armVerdammt man Aggro hat uns gar nichts klar gemachtKlar gemacht hat mir nur Mama mein Yamaha MD8Danke Mama scheiß auf Aggro man ich schulde euch jetzt nichtsIhr schuldet mir meine Zeit die Gedul ich nur den StrickMan ihr Fotzen habt mich so verraten wir warn damals so geladenIch hätt Lust euch totzuschlagen wars nicht schön mich los zu habenIch hab mich so sehr auf das Label verlassenDoch dann gemerkt ich muss das Label verlassen ihr scheiß Verräter[Hook:]Es war Siggi, Patrick,  Bobby, jetzt steh ich hier ohneSiggi, Patrick, Bobby ich bin ich gebliebenSiggi, Patrick, Bobby, ich war nicht zufriedenScheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin
-Siggi, Patrick, Bobby jetzt steh ich hier ohneSiggi, Patrick, Bobby ich bin ich gebliebenSiggi, Patrick, Bobby, ich war nicht zufriedenScheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin[Part 2:]Trotzdem bin ich noch mit Fler geblieben schwer zufrieden war nur SpaicheHalil, Specter weil sie durch zwei Dummköpfe jetzt mehr verdientenHabs mir gefallen lassen wir hatten Angst das Sie uns fallen lassenSag was sollt ich tun ich müsst sie alle klatschenSiggi, Bobby, Bobby SiggiKomm ich wollt von Anfang an mit keinem chilln der seine Pillen schlucktUnd zwar bis AmsterdamVedammte Krüppel, Junkykiffer fühl mich von euch angepisst manIhr scheiß Verräter, ihr scheiß Lügner ihr verdammten StricherHabt mich komplett enttäuscht Spaiche ich bin weg von euchFragt nicht wer ich bin hier komm der King im Gangsterrap auf deutschIhr habt gedacht ich werde nichts ohne euch fickt euch ihr ToysAus dem grund weil nix mit euch läuftDiese zeit hab ich bereut verdammt man nein es gibt kein neuen AnfangUnd wenn ich euch jagen würde jeder von euch bräucht ne PumpgunGeh in den Spiegel schaun das ganze Land erfährt die WahrheitFick das Label, fick die Künstler, fickt eure verkehrte ArbeitJetzt seit ihr Major was, was denn los mit IndependentEgal ich scheiß auf euch ihr zählt echt zu den schlimmsten MenschenIch hab mich so auf euer Label verlassenUnd bald wird jeder euer Label verlassen ihr scheiß Verräter
-Hook:Es war Siggi, Patrick, Bobby jetzt steh ich hier ohneSiggi, Patrick, Bobby ich bin ich gebliebenSiggi, Patrick, Bobby, ich war nicht zufriedenScheiß auf euch drei Krüppel ich sag vielen Dank Aggro BerlinSiggi, Patrick, Bobby jetzt steh ich hier ohneSiggi, Patrick, Bobby ich bin ich gebliebenSiggi, Patrick, Bobby, ich war nicht zufriedenScheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin</t>
+          <t>[Part1:]
+Ich war damals viel zu jung dafür man hatte noch kein Plan vom Business
+Dachte ich mach jetzt mit Rap mein Geld weil sonst der Tag gefickt ist
+Aggro Business, mandamals gabs noch keine Aggro Bitches
+Dacht nur ich wär Aggro wichtig fast wurd ich brutal vernichtet
+Mir wurd die Chance gegeben plus ich hab mein Wort gegeben
+Trends gesetzt denn nur durch mich war plötzlich Cordon Sport am Leben
+Verdammt man nur durch mich war plötzlich auch der Block am Leben
+Durch Bushido war im Rapgeschäfft dann auch Gesocks vertreten
+Für euch wars selbstverständlich Halil ich habs rausgefunden
+Selbstverständlich Fler und mich für ein bisschen Patte auszunutzen
+Wir warn so unerfahren 1000 scheiß Versprechen hier
+2000 scheiß Versprechen da und wir wurden durch rappen arm
+Verdammt man Aggro hat uns gar nichts klar gemacht
+Klar gemacht hat mir nur Mama mein Yamaha MD8
+Danke Mama scheiß auf Aggro man ich schulde euch jetzt nichts
+Ihr schuldet mir meine Zeit die Gedul ich nur den Strick
+Man ihr Fotzen habt mich so verraten wir warn damals so geladen
+Ich hätt Lust euch totzuschlagen wars nicht schön mich los zu haben
+Ich hab mich so sehr auf das Label verlassen
+Doch dann gemerkt ich muss das Label verlassen ihr scheiß Verräter
+[Hook:]
+Es war Siggi, Patrick, Bobby, jetzt steh ich hier ohne
+Siggi, Patrick, Bobby ich bin ich geblieben
+Siggi, Patrick, Bobby, ich war nicht zufrieden
+Scheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin
+Siggi, Patrick, Bobby jetzt steh ich hier ohne
+Siggi, Patrick, Bobby ich bin ich geblieben
+Siggi, Patrick, Bobby, ich war nicht zufrieden
+Scheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin
+[Part 2:]
+Trotzdem bin ich noch mit Fler geblieben schwer zufrieden war nurSpaicheHalil, Specterweil sie durch zwei Dummköpfe jetzt mehr verdienten
+Habs mir gefallen lassen wir hatten Angst das Sie uns fallen lassen
+Sag was sollt ich tun ich müsst sie alle klatschen
+Siggi, Bobby, Bobby SiggiKomm ich wollt von Anfang an mit keinem chilln der seine Pillen schlucktUnd zwar bis AmsterdamVedammte Krüppel, Junkykifferfühl mich von euch angepisst man
+Ihr scheiß Verräter, ihr scheiß Lügner ihr verdammten Stricher
+Habt mich komplett enttäuscht Spaiche ich bin weg von euch
+Fragt nicht wer ich bin hier komm der King im Gangsterrap auf deutsch
+Ihr habt gedacht ich werde nichts ohne euch fickt euch ihr Toys
+Aus dem grund weil nix mit euch läuft
+Diese zeit hab ich bereut verdammt man nein es gibt kein neuen Anfang
+Und wenn ich euch jagen würde jeder von euch bräucht ne Pumpgun
+Geh in den Spiegel schaun das ganze Land erfährt die Wahrheit
+Fick das Label, fick die Künstler, fickt eure verkehrte Arbeit
+Jetzt seit ihr Major was, was denn los mit Independent
+Egal ich scheiß auf euch ihr zählt echt zu den schlimmsten Menschen
+Ich hab mich so auf euer Label verlassen
+Und bald wird jeder euer Label verlassen ihr scheiß Verräter
+Hook:
+Es war Siggi, Patrick, Bobby jetzt steh ich hier ohne
+Siggi, Patrick, Bobby ich bin ich geblieben
+Siggi, Patrick, Bobby, ich war nicht zufrieden
+Scheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin
+Siggi, Patrick, Bobby jetzt steh ich hier ohne
+Siggi, Patrick, Bobby ich bin ich geblieben
+Siggi, Patrick, Bobby, ich war nicht zufrieden
+Scheiß auf euch drei Krüppel ich sag vielen Dank Aggro Berlin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -800,10 +1298,97 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Hook]Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf![Verse 1]Yeah, keine Sonne schafft es hier die Straßen zu beleuchten, man!Los, Frau Merkel, ich mach' jetzt den NeuanfangStell' mich auf zum Ghetto-Präsident! (Präsident)Ich gewinn' die Wahlen, ich hab' die absolute Mehrheit durch die FansUnd sie reden von der Straße, wer von euch war schon mal auf der Straße?Zieh den weißen Tod durch deine NaseSonnenstrahlen gibt es nicht, ich schreib ein Track über GerechtigkeitDas hier wird der zweite Teil von 'Gibt es dich'Hier, siehst du kein lachen, weil sich keiner freutUnd dieses Klima zwingt dich, dass du von der Heimat träumstAlles macht dich hier so depressiv, doch keiner sieht'sSchon wieder Weihnachten im Knast, wie die Zeit verfliegtUnd ja du trauerst, deine Eltern sind enttäuschtWeil du kein krummes Ding bereustKeine Perspektive; hier ist man mit einem Bein im KnastRiegel zu und das ist Einzelhaft, gut Nacht, gute Nacht!
-[Hook]Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf![Verse 2]Ich hab' die Straßenattitüde hier, Straßenattitüde daSag', was kann ich tun, kann nicht schlafen, vom "Tatü Tata"Klar, euer scheiß Leben ist schon abgesichertMedizin studieren, Doktor werden über Nacht, ihr WichserUns wurde keine Möglichkeit gegeben, kein MonacoWir hatten nur 'ne schöne Zeit im RegenIch ess' Döner und du TrüffelUnd mein scheiß Bewährungshelfer guckt jeden Tag, wie sich der Köter so entwickeltDu Opfer kriegst hier GänsehautHier sind die Wände grau, Menschen draufIch mach den Gefängnissound, kenn' mich ausScheiß auf rappen, ich war nie ein RapperSeit meinem siebten Lebensjahr war mein Ziel: VerbrecherHier gibt's kein' Ausweg, das bleibt 'ne EinbahnstraßeUnd ich sinke hier, weil ich grad in Treibsand schlafeUnd die Scheiße hält mich wach, ich guck' meine Freunde anTrauer, Trauer, Junge keiner hat's geschafft
-[Hook]Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf![Verse 3]Hier wird es kälter, kälter - ich bin hier und ich erfrier'Man, du kriegst mich aus Berlin, doch Berlin niemals aus mir!Kreuz die Finger zu 'nem W, auf Bull'n hab' ich geschissenUnd die Politik versagt, selber Schuld, wenn wir sie dissenEuer Armutszeugnis kriegt ihr jetzt zurückWeil die Armut deutsch ist, die Armut häuft sichKeiner will es sehn, doch wir steh'n mittendrinWas für Gangsterrap? Schaut mir zu ich leb was ich singDie Sanduhr, sie läuft weiter, StopWir träum' weiter, weiter Fehler machen, doch das Schlimmste hier bereut keinerWir sind gefangene Kinder, das ganze Jahr lang WinterUnd selbst paar Freudentränen würde dieser Staat verhindernHier gibt es keine Zukunft, du wirst gezwungen zu deal'nKeine Arbeit, also Spielothek, du wirst gezwungen zu spiel'nUnd diese Straße bleibt mein zweites DachWir sind kriminell, du Bonze also schließt sich hier der Kreis du Spast
-[Hook]Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!Und es geht “Ching Ching”Sag' mir, hörst du, wie das Ghetto klingt? (klingt)Was ich mache, bleibt ein Ghetto-Ding! (Ding)Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'nDass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf!</t>
+          <t>[Hook]
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf!
+[Verse 1]
+Yeah, keine Sonne schafft es hier die Straßen zu beleuchten, man!Los, Frau Merkel, ich mach' jetzt den Neuanfang
+Stell' mich auf zum Ghetto-Präsident! (Präsident)Ich gewinn' die Wahlen, ich hab' die absolute Mehrheit durch die Fans
+Und sie reden von der Straße, wer von euch war schon mal auf der Straße?
+Zieh den weißen Tod durch deine Nase
+Sonnenstrahlen gibt es nicht, ich schreib ein Track über Gerechtigkeit
+Das hier wird der zweite Teil von 'Gibt es dich'
+Hier, siehst du kein lachen, weil sich keiner freutUnd dieses Klima zwingt dich, dass du von der Heimat träumstAlles macht dich hier so depressiv, doch keiner sieht's
+Schon wieder Weihnachten im Knast, wie die Zeit verfliegt
+Und ja du trauerst, deine Eltern sind enttäuscht
+Weil du kein krummes Ding bereust
+Keine Perspektive; hier ist man mit einem Bein im KnastRiegel zu und das ist Einzelhaft, gut Nacht, gute Nacht!
+[Hook]
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf!
+[Verse 2]
+Ich hab' die Straßenattitüde hier, Straßenattitüde da
+Sag', was kann ich tun, kann nicht schlafen, vom "Tatü Tata"
+Klar, euer scheiß Leben ist schon abgesichert
+Medizin studieren, Doktor werden über Nacht, ihr Wichser
+Uns wurde keine Möglichkeit gegeben, kein Monaco
+Wir hatten nur 'ne schöne Zeit im Regen
+Ich ess' Döner und du Trüffel
+Und mein scheiß Bewährungshelfer guckt jeden Tag, wie sich der Köter so entwickelt
+Du Opfer kriegst hier Gänsehaut
+Hier sind die Wände grau, Menschen drauf
+Ich mach den Gefängnissound, kenn' mich aus
+Scheiß auf rappen, ich war nie ein Rapper
+Seit meinem siebten Lebensjahr war mein Ziel: Verbrecher
+Hier gibt's kein' Ausweg, das bleibt 'ne Einbahnstraße
+Und ich sinke hier, weil ich grad in Treibsand schlafe
+Und die Scheiße hält mich wach, ich guck' meine Freunde an
+Trauer, Trauer, Junge keiner hat's geschafft
+[Hook]
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf!
+[Verse 3]
+Hier wird es kälter, kälter - ich bin hier und ich erfrier'
+Man, du kriegst mich aus Berlin, doch Berlin niemals aus mir!
+Kreuz die Finger zu 'nem W, auf Bull'n hab' ich geschissen
+Und die Politik versagt, selber Schuld, wenn wir sie dissen
+Euer Armutszeugnis kriegt ihr jetzt zurück
+Weil die Armut deutsch ist, die Armut häuft sich
+Keiner will es sehn, doch wir steh'n mittendrin
+Was für Gangsterrap? Schaut mir zu ich leb was ich sing
+Die Sanduhr, sie läuft weiter, Stop
+Wir träum' weiter, weiter Fehler machen, doch das Schlimmste hier bereut keiner
+Wir sind gefangene Kinder, das ganze Jahr lang Winter
+Und selbst paar Freudentränen würde dieser Staat verhindern
+Hier gibt es keine Zukunft, du wirst gezwungen zu deal'n
+Keine Arbeit, also Spielothek, du wirst gezwungen zu spiel'n
+Und diese Straße bleibt mein zweites Dach
+Wir sind kriminell, du Bonze also schließt sich hier der Kreis du Spast
+[Hook]
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man klaut, dass man raubt, dass man Autos tiefer legt Kassen auf!
+Und es geht “Ching Ching”
+Sag' mir, hörst du, wie das Ghetto klingt? (klingt)
+Was ich mache, bleibt ein Ghetto-Ding! (Ding)
+Ihr werdet’s nie versteh'n, Mann, ihr werdet’s nie versteh'n
+Dass man dealt, dass man stiehlt, dass man Autos tiefer legt Kassen auf!</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -857,8 +1442,58 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Hook]Wir komm', wir komm' in dein Ghetto du entkommstKeinem du solltest laufen du Keko jetzt renn fortWir sind ready, wir komm mit der gang es gibt kein BattleDie g - g - Ghettojungs das Album is heavy Metal[Part 1: Bushido]Das Album is heavy Metal, Payback für deutsche RapperDie unterste Schublade man kay one und der VerbrecherIch komm und es gibt kein zurück. ich hab 2 platten aus goldDoch die erste aus beton bleibt ein einzelstückFick dein personschutz, weil ich patron' schluckIch mein das ernst, ich lass meine aggression im puffDu nimmst so viele pilln', und drehst ein kinofilm?Nimm doch den titel "kein berliner will mit sido chilln"Ghettostory ghettojunge, ich hab mein pass gefälschtIch seh wie du opfer nur zur promo deine maske hälstIn dieser schattenwelt, in der wir zwei lebenMachen kanacken geld, und zwar durch schein-ehenMachen kanacken geld, wir nenn's medizinDie straße macht dich hart, hart wegen dem tilidinKay und ich sitzen heut im gerichtEgal dafür wurde deutschrap geficktUnd die bombe folgt zugleich, du krüppel bist schon totDu bleibst nur ein schauspieler man ich ficke so ein koksDas is tempelhof-rock, westside berlinDas ist erstguterjunge unser rap bleibt granitYeah
-[Hook](x2)Wir komm', wir komm' in dein ghetto du entkommstKeinem du solltest laufen du keko jetzt renn fortWir sind ready, wir komm mit der gang es gibt kein battleDie ghe - ghe - ghettojungs das album is heavy metal[Part 2: Kay One]Ich bleibe der boss player, bleib bei der powerbräuneKomm in dein dorf-fest und ich box deine bauernfreundeMeine ex meint, ich wär' psychisch krankIch steig in den bus und zieh das speed vor den ganzen leuten, an meine kindheit sag ich vielen dankIch habe den brief verdammt, das geht auch vorbei steht drinKrasse laune greif zum jin, mein problem weil ich heimlich trinkDer psychodokter redet stop, ich nehm mir die couch, steh wieder auf, und geh wieder rausUnd ficke danach unzählige fraun. WOWIch geh mal am bahnhof klaun, und schlage die bravo aufBushido sagt: "ey kay zu krass man du siehst wie ricky martin aus."Lauf, zu der strandhausparty, sauf, hol mal dein schwanz raus abiIch schenke dem penner die jacke er sagt vielen dank sankt martinMach dein face voll kleber, komm mit nem BaseballschlägerKomm vom urlaub und jede bitch sagt nur noch fick mich kay du negerKletter, über den Gartenzaun, klau, deinen mercedesjeepOk, ich habe getrunken, war nur spaß, man ich red zu vielMan ich spring im jet raus, ich mache das becks aufSechs Frauen, habe nen Blackout, wenn ich sie im 6er weghauMan ich stell den check aus, auf die plätze fertig losKay one auf die fresse fertig tod
+          <t>[Hook]
+Wir komm', wir komm' in dein Ghetto du entkommst
+Keinem du solltest laufen du Keko jetzt renn fort
+Wir sind ready, wir komm mit der gang es gibt kein Battle
+Die g - g - Ghettojungs das Album is heavy Metal
+[Part 1: Bushido]
+Das Album is heavy Metal, Payback für deutsche Rapper
+Die unterste Schublade man kay one und der Verbrecher
+Ich komm und es gibt kein zurück. ich hab 2 platten aus gold
+Doch die erste aus beton bleibt ein einzelstück
+Fick dein personschutz, weil ich patron' schluck
+Ich mein das ernst, ich lass meine aggression im puff
+Du nimmst so viele pilln', und drehst ein kinofilm?Nimm doch den titel "kein berliner will mit sido chilln"
+Ghettostory ghettojunge, ich hab mein pass gefälscht
+Ich seh wie du opfer nur zur promo deine maske hälst
+In dieser schattenwelt, in der wir zwei leben
+Machen kanacken geld, und zwar durch schein-ehen
+Machen kanacken geld, wir nenn's medizin
+Die straße macht dich hart, hart wegen demtilidin
+Kay und ich sitzen heut im gericht
+Egal dafür wurde deutschrap gefickt
+Und die bombe folgt zugleich, du krüppel bist schon tot
+Du bleibst nur ein schauspielerman ich ficke so ein koks
+Das is tempelhof-rock, westside berlin
+Das ist erstguterjunge unser rap bleibt granit
+Yeah
+[Hook](x2)
+Wir komm', wir komm' in dein ghetto du entkommst
+Keinem du solltest laufen du keko jetzt renn fort
+Wir sind ready, wir komm mit der gang es gibt kein battle
+Die ghe - ghe - ghettojungs das album is heavy metal
+[Part 2: Kay One]
+Ich bleibe der boss player, bleib bei der powerbräune
+Komm in dein dorf-fest und ich box deine bauernfreunde
+Meine ex meint, ich wär' psychisch krank
+Ich steig in den bus und zieh das speed vor den ganzen leuten, an meine kindheit sag ich vielen dank
+Ich habe den brief verdammt, das geht auch vorbei steht drin
+Krasse laune greif zumjin, mein problem weil ich heimlich trink
+Der psychodokter redet stop, ich nehm mir die couch, steh wieder auf, und geh wieder raus
+Und ficke danach unzählige fraun. WOW
+Ich geh mal am bahnhof klaun, und schlage die bravo auf
+Bushido sagt: "ey kay zu krass man du siehst wie ricky martin aus."
+Lauf, zu der strandhausparty, sauf, hol mal dein schwanz raus abi
+Ich schenke dem penner die jacke er sagt vielen dank sankt martin
+Mach dein face voll kleber, komm mit nem Baseballschläger
+Komm vom urlaub und jede bitch sagt nur noch fick mich kay du neger
+Kletter, über den Gartenzaun, klau, deinen mercedesjeep
+Ok, ich habe getrunken, war nur spaß, man ich red zu viel
+Man ich spring im jet raus, ich mache das becks auf
+Sechs Frauen, habe nen Blackout, wenn ich sie im 6er weghau
+Man ich stell den check aus, auf die plätze fertig los
+Kay one auf die fresse fertig tod
 [Hook](x2)</t>
         </is>
       </c>
@@ -913,9 +1548,74 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Ich seh' durch deine Augen diesen Hass in dirIch seh' wie gern du mich doch abservierstUnd du willst sehen wie ich mich krass blamier'Du würdest lachen wenn jetzt Tränen runter kommenUnd bei schlechten Zeiten dürft ich diesem Leben nicht entkommenUnd du würdest mich verkaufen, bin Luft in deinen AugenSag mir bitte wie oft musst ich schon dran glauben?Sag mir wie oft wurd' ich von dir jetzt schon ausgenutzt?Hab dir so oft verziehen trotzdem hast du drauf gespucktDu redest ziemlich gern, und gern auch über michUnd geht's mir gut seh' ich wie du meine Flügel brichstIch bin dir scheißegal, ich hab's kapiert Ok?Du schleppst die Steine an und blockierst mir den Weg!Ja ich interessier' dich null, ich hab nur Ärger manIch brauch einen echten Freund, einen der mich stärkt verdammtZeit in diesem dunklen Loch, die wirst du verbringenWeil du mir im Leben nie was Gutes wünschst[Hook: Bushido &amp; Bizzy Montana](2x)Und ich hoffe dir geht es gut, (egal wo du grad auch bist)Den Frieden findest du bald, (ich merke doch wie es dich fickt)Ich seh doch wie du dich quälst, (ich spüre doch diesen Schmerz)Man tu dir sowas nicht an, (diese Tränen bist du uns Wert)[Part 2: Bizzy Montana]Ich weiß du siehst es gerne wenn ich am verzweifeln binWenn alles was ich habe einfach geht und ich alleine binAuch wenn wir keine Feinde sind, Freunde sind wir auch nicht mehrIch bin es Leid doch irgendwie gewohnt von dir enttäuscht zu werdenSo viel versprochen doch die Versprechen gebrochenUnsere Freundschaft ist gegangen mit dem letzten Funken HoffnungHeute gehst du blind an mir vorbei ich weiß du willst mich leiden sehenWeinen sehen, doch ich bleibe stehen und schreib mit meinen TränenDu suchst nach Gründen mich zu hassen ich gewöhn' mich dranEs fühlt sich an als ob du nur allein mit Blicken töten kannstUnd verdammt warum willst du sehen dass ich aufgebeHinfalle, liegen bleibe und nie wieder aufstehe?Ich wollte dir nichts Böses im Gegensatz zu dirMein Schädel platzt wegen dir ich hab es akzeptiertUnd auch wenn mich all der Hass und auch die Wut zerreißtHoffe ich es geht dir gut dabei
-[Hook: Bushido &amp; Bizzy Montana](2x)Und ich hoffe dir geht es gut, (egal wo du grad auch bist)Den Frieden findest du bald, (ich merke doch wie es dich fickt)Ich seh doch wie du dich quälst, (ich spüre doch diesen Schmerz)Man tu dir sowas nicht an, (diese Tränen bist du uns wert)[Part 3: Bushido]Du würdest gerne sehen, dass ich fall, mein Leben lässt dich kaltJa und trotzdem, wünschst du mir Probleme an den HalsDu willst sehen, dass ich zitter, zitter und verlierKeine Träne sogar wenn ich hinter Gittern mal krepierUnd diese Kälte werd' ich nie verstehenWarum willst du mich nur auf der Erde liegen sehen?Und du trittst mich mit Füßen, dein Hass er zerbricht michIch hoff es macht dich jetzt glücklich![Part 4: Bizzy Montana]Es macht mich verrückt, ich weiß du willst jetzt sehen wie ich untergeheUnd ich nehm' es einfach hin auch wenn ich nicht den Grund versteheWarum bist du grundlos böse, hier liegen nur Scherben rumSelbst wenn ich sterben würde kämst du nicht zu der BeerdigungWarum willst du mir das alles nehmen was mir Freude machtIch will es nicht verstehen, dass ich die Zeit mit dir vergeudet habUnd heute sag ich hier und jetzt für mich ist es erledigtUnd ich hoffe nur der Herr ist mit dir gnädig
-[Hook: Bushido &amp; Bizzy Montana](2x)Und ich hoffe dir geht es gut, (egal wo du grad auch bist)Den Frieden findest du bald, (ich merke doch wie es dich fickt)Ich seh' doch wie du dich quälst, (ich spüre doch diesen Schmerz)Man tu dir sowas nicht an, (diese Tränen bist du uns wert)</t>
+          <t>[Part 1: Bushido]
+Ich seh' durch deine Augen diesen Hass in dir
+Ich seh' wie gern du mich doch abservierst
+Und du willst sehen wie ich mich krass blamier'
+Du würdest lachen wenn jetzt Tränen runter kommen
+Und bei schlechten Zeiten dürft ich diesem Leben nicht entkommen
+Und du würdest mich verkaufen, bin Luft in deinen Augen
+Sag mir bitte wie oft musst ich schon dran glauben?
+Sag mir wie oft wurd' ich von dir jetzt schon ausgenutzt?
+Hab dir so oft verziehen trotzdem hast du drauf gespuckt
+Du redest ziemlich gern, und gern auch über mich
+Und geht's mir gut seh' ich wie du meine Flügel brichst
+Ich bin dir scheißegal, ich hab's kapiert Ok?
+Du schleppst die Steine an und blockierst mir den Weg!
+Ja ich interessier' dich null, ich hab nur Ärger man
+Ich brauch einen echten Freund, einen der mich stärkt verdammt
+Zeit in diesem dunklen Loch, die wirst du verbringen
+Weil du mir im Leben nie was Gutes wünschst
+[Hook: Bushido &amp; Bizzy Montana](2x)
+Und ich hoffe dir geht es gut, (egal wo du grad auch bist)
+Den Frieden findest du bald, (ich merke doch wie es dich fickt)
+Ich seh doch wie du dich quälst, (ich spüre doch diesen Schmerz)
+Man tu dir sowas nicht an, (diese Tränen bist du uns Wert)
+[Part 2: Bizzy Montana]
+Ich weiß du siehst es gerne wenn ich am verzweifeln bin
+Wenn alles was ich habe einfach geht und ich alleine bin
+Auch wenn wir keine Feinde sind, Freunde sind wir auch nicht mehr
+Ich bin es Leid doch irgendwie gewohnt von dir enttäuscht zu werden
+So viel versprochen doch die Versprechen gebrochen
+Unsere Freundschaft ist gegangen mit dem letzten Funken Hoffnung
+Heute gehst du blind an mir vorbei ich weiß du willst mich leiden sehen
+Weinen sehen, doch ich bleibe stehen und schreib mit meinen Tränen
+Du suchst nach Gründen mich zu hassen ich gewöhn' mich dran
+Es fühlt sich an als ob du nur allein mit Blicken töten kannst
+Und verdammt warum willst du sehen dass ich aufgebe
+Hinfalle, liegen bleibe und nie wieder aufstehe?
+Ich wollte dir nichts Böses im Gegensatz zu dir
+Mein Schädel platzt wegen dir ich hab es akzeptiert
+Und auch wenn mich all der Hass und auch die Wut zerreißt
+Hoffe ich es geht dir gut dabei
+[Hook: Bushido &amp; Bizzy Montana](2x)
+Und ich hoffe dir geht es gut, (egal wo du grad auch bist)
+Den Frieden findest du bald, (ich merke doch wie es dich fickt)
+Ich seh doch wie du dich quälst, (ich spüre doch diesen Schmerz)
+Man tu dir sowas nicht an, (diese Tränen bist du uns wert)
+[Part 3: Bushido]
+Du würdest gerne sehen, dass ich fall, mein Leben lässt dich kalt
+Ja und trotzdem, wünschst du mir Probleme an den Hals
+Du willst sehen, dass ich zitter, zitter und verlier
+Keine Träne sogar wenn ich hinter Gittern mal krepier
+Und diese Kälte werd' ich nie verstehen
+Warum willst du mich nur auf der Erde liegen sehen?
+Und du trittst mich mit Füßen, dein Hass er zerbricht mich
+Ich hoff es macht dich jetzt glücklich!
+[Part 4: Bizzy Montana]
+Es macht mich verrückt, ich weiß du willst jetzt sehen wie ich untergehe
+Und ich nehm' es einfach hin auch wenn ich nicht den Grund verstehe
+Warum bist du grundlos böse, hier liegen nur Scherben rum
+Selbst wenn ich sterben würde kämst du nicht zu der Beerdigung
+Warum willst du mir das alles nehmen was mir Freude macht
+Ich will es nicht verstehen, dass ich die Zeit mit dir vergeudet hab
+Und heute sag ich hier und jetzt für mich ist es erledigt
+Und ich hoffe nur der Herr ist mit dir gnädig
+[Hook: Bushido &amp; Bizzy Montana](2x)
+Und ich hoffe dir geht es gut, (egal wo du grad auch bist)
+Den Frieden findest du bald, (ich merke doch wie es dich fickt)
+Ich seh' doch wie du dich quälst, (ich spüre doch diesen Schmerz)
+Man tu dir sowas nicht an, (diese Tränen bist du uns wert)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -969,9 +1669,86 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Hook: Cassandra Steen]Ganz egal was passiert , dir gehört mein HerzSie könn dich sogar ein Leben lang wegsperrenGar kein Polizist hält dich von mir fernIch kann dieses Gefühl einfach nicht erklärnErklärn was ich denk , wenn ich dich hier seh'Wenn du ins Gericht mit den Handschellen gehstDieser Blick verrät wie du hoffst &amp; flehstIch werd mit dir bis zum Ende gehn'[Part 1: Bushido]Und dieser schlimmste Tag, er wird jetzt wahrGuck' vor dir wird ich abgeführtIch ärger michDer Wärter spricht 'Schließ sie gründlich ab, die Tür'Ein letztes Mal, ich schwörEin letztes Mal wollt ich dich sehn, manDu warst meine Sonne, was fällt ihnen ein, mein Licht zu nehmenIch kann nichts mehr sehnMir bleibt bloß die ErinnerungIch sitz' in diesem Zimmer &amp; es wird immer schlimmer PunktDu warst meine Luft zum atmenUnd auf den Bus zu wartenIst mir noch nie schwer gefallenIch riech' noch den Duft am KragenEs fällt mir so verdammt schwer, mir nichts anzutunSchreib' mir nicht, mach mir kein' Mut, Du kennst dein' Mann zu gutUnd Ich zähl die Tage, zähl diese verdammten TageTräum von deinen braun' Augen &amp; den schwarzen langen HaarenEs macht mich so kaputt, Innerlich kaputt mein SchatzLass nich reden, sag was hat am Telefon der Kuss gebrachtHab ich nicht Schluss gemacht?! Hör' jetzt auf, beend' das Leid!Hab dich reingeritten, Jetzt bereu' ich diesen GangsterscheißNenn' mir den Preis, ich bezahl ihn jetzt um dich zu sehn'Dich zu sehn, wär' mein größter Wunsch, ich lass dich nicht mehr gehen'Doch das Beste wär,wenn du nicht mehr vergisst , weil ich bin ans Lebensende in der dunklen Zelle sitz'
-[Hook: Cassandra Steen]Ganz egal was passiert , dir gehört mein HerzSie könn dich sogar ein Leben lang wegsperrenGar kein Polizist hält dich von mir fernIch kann dieses Gefühl einfach nicht erklärnErklärn was ich denk , wenn ich dich hier seh'Wenn du ins Gericht mit den Handschellen gehstDieser Blick verrät wie du hoffst &amp; flehstIch werd mit dir bis zum Ende gehn'[Part 2: Bushido]Bis zum Ende gehn, Ich schwörs dir jetzt, du hälst nicht durchMan hier im Knast gibts nur Hass, Tränen, Kälte, FurchtSchatz hier drehst du völlig durch, 4 Wände jeden TagIch werd verrückt &amp; dass ich hier ende geht nicht klarIch denk an Dich , Tag &amp; NachtDurch wird die Nacht zum TagIch kann nicht mehrDein Gesicht raubt mir so krass den SchlafEs wird zu viel, Wie gern würd' ich jeden Abend sterben!Ich wünsch nichtmal meinem größtem Feind, so bestraft zu werdenJeden Tag das gleiche hier23 Stunden ZelleLangeweile treibt mich , dass ich Möbel ohne Grund umstelleTäglich grüßt das MurmeltierDas hier ist der Gleiche FilmHier wirst du gezwung', jeden Tag mit deinem Feind zu chillenEs hat sich nicht gelohntAlles war ein Griff ins KloRitz dein' Namen in die WändeScheiße ich vermiss dich soGlaub mir ich vermiss dich soDenk an alte ZeitenUnd Blick auf meine UhrMir wird klar hier geht die Zeit nicht rumSchatz, bitte hilf mir raus, ich werd noch gekillt im BauBonny ich sprech' zu dir , weil Clyde jetzt deine Hilfe brauchtDenk an mich, denk an damals , bitte lass mich nicht häng'Jetzt beweis mir mal , dass du um mich kämpfst
-[Hook: Cassandra Steen]Ganz egal was passiert , dir gehört mein HerzSie könn dich sogar ein Leben lang wegsperrenGar kein Polizist hält dich von mir fernIch kann dieses Gefühl einfach nicht erklärnErklärn was ich denk , wenn ich dich hier seh'Wenn du ins Gericht mit den Handschellen gehstDieser Blick verrät wie du hoffst &amp; flehstIch werd mit dir bis zum Ende gehn'</t>
+          <t>[Hook: Cassandra Steen]
+Ganz egal was passiert , dir gehört mein Herz
+Sie könn dich sogar ein Leben lang wegsperren
+Gar kein Polizist hält dich von mir fern
+Ich kann dieses Gefühl einfach nicht erklärn
+Erklärn was ich denk , wenn ich dich hier seh'
+Wenn du ins Gericht mit den Handschellen gehst
+Dieser Blick verrät wie du hoffst &amp; flehst
+Ich werd mit dir bis zum Ende gehn'
+[Part 1: Bushido]
+Und dieser schlimmste Tag, er wird jetzt wahr
+Guck' vor dir wird ich abgeführt
+Ich ärger mich
+Der Wärter spricht 'Schließ sie gründlich ab, die Tür'
+Ein letztes Mal, ich schwör
+Ein letztes Mal wollt ich dich sehn, man
+Du warst meine Sonne, was fällt ihnen ein, mein Licht zu nehmen
+Ich kann nichts mehr sehn
+Mir bleibt bloß die Erinnerung
+Ich sitz' in diesem Zimmer &amp; es wird immer schlimmer Punkt
+Du warst meine Luft zum atmen
+Und auf den Bus zu warten
+Ist mir noch nie schwer gefallen
+Ich riech' noch den Duft am Kragen
+Es fällt mir so verdammt schwer, mir nichts anzutun
+Schreib' mir nicht, mach mir kein' Mut, Du kennst dein' Mann zu gut
+Und Ich zähl die Tage, zähl diese verdammten Tage
+Träum von deinen braun' Augen &amp; den schwarzen langen Haaren
+Es macht mich so kaputt, Innerlich kaputt mein Schatz
+Lass nich reden, sag was hat am Telefon der Kuss gebracht
+Hab ich nicht Schluss gemacht?! Hör' jetzt auf, beend' das Leid!
+Hab dich reingeritten, Jetzt bereu' ich diesen Gangsterscheiß
+Nenn' mir den Preis, ich bezahl ihn jetzt um dich zu sehn'
+Dich zu sehn, wär' mein größter Wunsch, ich lass dich nicht mehr gehen'
+Doch das Beste wär,wenn du nicht mehr vergisst , weil ich bin ans Lebensende in der dunklen Zelle sitz'
+[Hook: Cassandra Steen]
+Ganz egal was passiert , dir gehört mein Herz
+Sie könn dich sogar ein Leben lang wegsperren
+Gar kein Polizist hält dich von mir fern
+Ich kann dieses Gefühl einfach nicht erklärn
+Erklärn was ich denk , wenn ich dich hier seh'
+Wenn du ins Gericht mit den Handschellen gehst
+Dieser Blick verrät wie du hoffst &amp; flehst
+Ich werd mit dir bis zum Ende gehn'
+[Part 2: Bushido]
+Bis zum Ende gehn, Ich schwörs dir jetzt, du hälst nicht durch
+Man hier im Knast gibts nur Hass, Tränen, Kälte, Furcht
+Schatz hier drehst du völlig durch, 4 Wände jeden Tag
+Ich werd verrückt &amp; dass ich hier ende geht nicht klar
+Ich denk an Dich , Tag &amp; Nacht
+Durch wird die Nacht zum Tag
+Ich kann nicht mehr
+Dein Gesicht raubt mir so krass den Schlaf
+Es wird zu viel, Wie gern würd' ich jeden Abend sterben!
+Ich wünsch nichtmal meinem größtem Feind, so bestraft zu werden
+Jeden Tag das gleiche hier
+23 Stunden Zelle
+Langeweile treibt mich , dass ich Möbel ohne Grund umstelle
+Täglich grüßt das Murmeltier
+Das hier ist der Gleiche Film
+Hier wirst du gezwung', jeden Tag mit deinem Feind zu chillen
+Es hat sich nicht gelohnt
+Alles war ein Griff ins Klo
+Ritz dein' Namen in die Wände
+Scheiße ich vermiss dich so
+Glaub mir ich vermiss dich so
+Denk an alte Zeiten
+Und Blick auf meine Uhr
+Mir wird klar hier geht die Zeit nicht rum
+Schatz, bitte hilf mir raus, ich werd noch gekillt im Bau
+Bonny ich sprech' zu dir , weil Clyde jetzt deine Hilfe brauchtDenk an mich, denk an damals , bitte lass mich nicht häng'Jetzt beweis mir mal , dass du um mich kämpfst
+[Hook: Cassandra Steen]
+Ganz egal was passiert , dir gehört mein Herz
+Sie könn dich sogar ein Leben lang wegsperren
+Gar kein Polizist hält dich von mir fern
+Ich kann dieses Gefühl einfach nicht erklärn
+Erklärn was ich denk , wenn ich dich hier seh'
+Wenn du ins Gericht mit den Handschellen gehst
+Dieser Blick verrät wie du hoffst &amp; flehst
+Ich werd mit dir bis zum Ende gehn'</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1025,8 +1802,64 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Part 1]Ich hab' geglaubt, ich hätt' ihn tief begrabenIch hab' geglaubt, ja dieser Schmerz der mich fast sterben lies, würde mir nie wieder schadenIch hab' geglaubt, ich wäre endgültigt geheiltDoch ich streich über die Naben gerade wenn ich für dich schreib'Sie schmerzt, die ErinnerungDu hast mich genomm' wie ich bin, ich hab mir damals oft gewünscht wir bleiben immer jungOhne Sorgen, sehr viel spaß gemacht und dumm gelachtGras gehabt und rumgemacht, du warst wie ein Kumpel, SchatzErinner dich zurück, wir waren wie Topf und DeckelDeine Mutter meinte "Geh Dich nie mit einem Moslem treffen"Was kann ich dafür wenn deine Mum mich gleicht hasstWeil meine Tattoowierungen ins Familienbild nicht reinpasstLeider war sie nur zu oft diesem Glück im WegSie hat es kaputt gemacht, guck wie ich die Stückchen kleb'Ich wurde aggressiv, ich fing' an auszurastenDu hast es mitgemacht und ich habs an dir ausgelassenSag warum hast du dein Mund niemals aufgemachtIch war einfach jung, ich war dumm, ich hab drauf gekacktMan wie gern würd ich die Zeit jetzt zurückdrehnUnd ein klein Teil von meinem Glück nehmen[Hook]Siehst du wie ich innerlich zerbrech'?Spürst du diesen Schmerz? Es tut wehUnd scheiße man ich werd's niemals verstehenSag wie konnt' ich dich bloß gehen lassen?Mir fällt es schwer etwas zu essenWie konnt' ich so ein Fehler machen?Siehst du wie ich innerlich kaputt geh'?Siehst du jetzt mein Leid?Es tut wehVerdammt nochmal ich werd's mir nie verzeihenWie konnt ich dich bloß gehen lassen?Mir fällt es schwer normal zu schlafenWie konnt ich so ein Fehler machen?
-[Part 2]Gestern hat es mich komplett zerrissenIch hab' gemerkt wie du mir fehlst und ich Idiot hab auch die letzten Fotos weggeschmissenIch bin's nicht wert ich hab zu viel zerstörtIch hab gehört du hast ein Freund mein Herz wird nie wieder dir gehör'nEs ist ein Stich im Herzen, ich schwör' ich bring' ihn umDu bist gestorben, du lebst nur in der ErinnerungIch hoffe nur dass ich euch beide nie zusammen seh'Sag hab ich nicht genug geblutet, ich hör auf dich anzuflehenIch höre auf zu fragen ob du mir nochmal verzeihstIch werd auch nie mehr fragen "Jenny hast du heute Zeit?"Es ist ein Teufelskreis, ich hab das nicht verdientSag warum tust du das, hab ich dich nicht geliebtIch weiß dass deine Mutter voll auf so Gesocks spucktDeswegen hast du mich vergessen wie auf KnopfdruckUnd das tut tierisch weh, egal wie schwul das klingtEs ist nicht viel doch in mir steckt noch was Gutes drinHast du vergessen was ich alles schon getan habJa alles schon gemacht hab, wohin ich dich gefahren habDu denkst ich kämpf um dich, jetzt beende ich'sAlles liebe Schatz und denk an mich..[Hook]</t>
+          <t>[Songtext zu „Jenny"]
+[Part 1]
+Ich hab' geglaubt, ich hätt' ihn tief begraben
+Ich hab' geglaubt, ja dieser Schmerz der mich fast sterben lies, würde mir nie wieder schaden
+Ich hab' geglaubt, ich wäre endgültig geheilt
+Doch ich streich über die Naben grade wenn ich für dich schreib'
+Sie schmerzt, die Erinnerung
+Du hast mich genomm'n wie ich bin, ich hab' mir damals oft gewünscht wir bleiben immer jung
+Ohne Sorgen, sehr viel Spaß gemacht und dumm gelacht
+Gras gehabt und rumgemacht, du warst wie ein Kumpel, Schatz
+Erinner dich zurück, wir war'n wie Topf und Deckel
+Deine Mutter meinte „Geh Dich nie mit einem Moslem treffen!"
+Was kann ich dafür wenn deine Mum mich gleicht hasst?
+Weil meine Tattoowierung ins Familienbild nicht reinpasst
+Leider war sie nur zu oft diesem Glück im Weg
+Sie hat es kaputt gemacht, guck wie ich die Stückchen kleb'
+Ich wurde aggressiv, ich fing an auszurasten
+Du hast es mitgemacht und ich hab's an dir ausgelassen
+Sag warum hast du dein'n Mund niemals aufgemacht?
+Ich war einfach jung, ich war dumm, ich hab' drauf gekackt
+Mann, wie gern würd' ich die Zeit jetzt zurückdreh'n
+Und ein klein'n Teil von meinem Glück nehm'n
+[Hook]
+Siehst du wie ich innerlich zerbrech'?
+Spürst du diesen Schmerz? Es tut weh
+Und scheiße Mann ich werd's niemals versteh'n
+Sag, wie konnt' ich dich bloß gehen lassen?
+Mir fällt es schwer etwas zu essen
+Wie konnt' ich so ein'n Fehler machen?
+Siehst du wie ich innerlich kaputt geh'?
+Siehst du jetzt mein Leid?
+Es tut weh
+Verdammt nochmal ich werd's mir nie verzeihen
+Wie konnt ich dich bloß gehen lassen?
+Mir fällt es schwer normal zu schlafen
+Wie konnt' ich so ein'n Fehler machen?
+[Part 2]
+Gestern hat es mich komplett zerrissen
+Ich hab' gemerkt wie du mir fehlst und ich Idiot hab auch die letzten Fotos weggeschmissen
+Ich bin's nicht wert ich hab zu viel zerstört
+Ich hab gehört du hast ein Freund mein Herz wird nie wieder dir gehör'n
+Es ist ein Stich im Herzen, ich schwör' ich bring' ihn um
+Du bist gestorben, du lebst nur in der Erinnerung
+Ich hoffe nur dass ich euch beide nie zusammen seh'
+Sag hab ich nicht genug geblutet, ich hör auf dich anzuflehen
+Ich höre auf zu fragen ob du mir nochmal verzeihst
+Ich werd auch nie mehr fragen "Jenny hast du heute Zeit?"
+Es ist ein Teufelskreis, ich hab das nicht verdient
+Sag warum tust du das, hab ich dich nicht geliebt
+Ich weiß dass deine Mutter voll auf so Gesocks spuckt
+Deswegen hast du mich vergessen wie auf Knopfdruck
+Und das tut tierisch weh, egal wie schwul das klingt
+Es ist nicht viel doch in mir steckt noch was Gutes drin
+Hast du vergessen was ich alles schon getan hab
+Ja alles schon gemacht hab, wohin ich dich gefahren hab
+Du denkst ich kämpf um dich, jetzt beende ich's
+Alles liebe Schatz und denk an mich..
+[Hook]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1080,8 +1913,74 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part 1]Ich werfe dich ins Haifischbecken, jetzt kommt Fischfutter, JungsIch bin dieser Gangster, der mit deiner Bitchmutter bumstSüdberlin Maskulin, ist das wirklich euer Ernst?Du willst echten Beef und du ziehst den Kürzeren wie FlerEchte Gs, Ecstasy hacken wir jetzt kleinDie ganzen Missgeburten kacken mir ans BeinFick den Ghetto-Präsident, yeah, Ghetto-ProminenzJetzt gibt's auf die Fresse, du hast dich verschätzt, du halbes Hemd, yeahEs ist zu spät, Junge, guck, wir haben Blut gelecktScheiß drauf, ich ticke im geschlossenen Vollzug das PepDas hier ist Ghettorap, nichts hat sich verändertDu bist lebensmüde, du willst ficken mit 'nem GangsterScheiß auf Rappen, dich wird kein Stich rettenIhr Fische landet in Berlin im HaifischbeckenSonny Black, S-O-Doppel-N-Y, weil ich jetzt mich dreihundert Geschwistern komm'Yeah[Hook]Scheißegal, ob du Krüppel jetzt den Harten schiebstMich interessiert nicht, wer du bist, du bezahlst mir KiesDas hier ist Ghett-Ghett-Ghetto, auf den Straßen KriegDas hier ist Highlife, kein Scheiß, frag die Street[Part 2]Was kommst du in mein Territorium?Fick nicht mit dem Weißen HaiDu kackst dir in die Hosen, nur das Zähne zeigen reichtIhr seid zusammen stark, guck, ich bin allein krassIch lad' dich ein ins Ghetto, vierzig Tonnen BeißkraftIch fress' die Konkurrenz, zähl' die Bitches nieFenster runter, dass du meine Ledersitze siehstMein Bezirk, meine Stadt, Schwanz in Mund und GangbangIhr verfluchten Krüppelkinder, wandert aus wie SentenceSpast, ich hau' drauf, das ist Katzbach e.VIch ficke nicht mit sieben sondern acht krassen Frau'n (yeah!)Meine Freunde sind die Felgen auf dem AsphaltMach auf Paris, wenn du willst, dass ich deinen Welpen abknall'Dreizehnter war, ich rappe einfach zu hartIch hab's noch nie gesagt, doch ich scheiß' auf Savas"Keep it real" war nicht mein DingEs ging vom Bordstein zur SkylineVon der Fossil zu 'ner Breitling
-[Hook]Scheißegal, ob du Krüppel jetzt den Harten schiebstMich interessiert nicht, wer du bist, du bezahlst mir KiesDas hier ist Ghett-Ghett-Ghetto, auf den Straßen KriegDas hier ist Highlife, kein Scheiß, frag die Street[Part 3]Das ist das Arschloch deiner Frau, wo du Puderzucker reinblästSag mir nur, warum hat deine Hurenmutter MySpace?Kein Scheiß, Mann, du befindest dich im HighlifeIch bin Millionär, und ich hab's dir prophezeit, Nyze?Fick die Drecksszene, kack auf euer Aggro-BoardNach sechs Jahren hab' ich immer noch ein'n Hass auf TorchDu kommst im 7er, doch bleibst im Revier?Fick die deutsche Welle, denn wir brauchen kein'n Hitler hierHabt ihr gewusst: Fler, das Schwein, ist gepierctWer verkauft so viel, ich hab' als Vergleich Britney SpearsGhetto-Gangster, Block-RepräsentantWas für Dickschädel, ich hau' deinen Kopf hier durch die WandHärter, denn ich flex', Ärger mit GesetzIch hör', dass ich die Jugend nur verderb' mit den TracksUnsere Herzen sind aus BlechDu willst mich decken, schreib ne' MailIch-bin-willig@bewerbung.sonnyblack[Hook]Scheißegal, ob du Krüppel jetzt den Harten schiebstMich interessiert nicht, wer du bist, du bezahlst mir KiesDas hier ist Ghett-Ghett-Ghetto, auf den Straßen KriegDas hier ist Highlife, kein Scheiß, frag die Street</t>
+          <t>[Part 1]
+Ich werfe dich ins Haifischbecken, jetzt kommt Fischfutter, Jungs
+Ich bin dieser Gangster, der mit deiner Bitchmutter bumst
+Südberlin Maskulin, ist das wirklich euer Ernst?
+Du willst echten Beef und du ziehst den Kürzeren wie Fler
+Echte Gs, Ecstasy hacken wir jetzt klein
+Die ganzen Missgeburten kacken mir ans Bein
+Fick den Ghetto-Präsident, yeah, Ghetto-Prominenz
+Jetzt gibt's auf die Fresse, du hast dich verschätzt, du halbes Hemd, yeah
+Es ist zu spät, Junge, guck, wir haben Blut geleckt
+Scheiß drauf, ich ticke im geschlossenen Vollzug das Pep
+Das hier ist Ghettorap, nichts hat sich verändert
+Du bist lebensmüde, du willst ficken mit 'nem Gangster
+Scheiß auf Rappen, dich wird kein Stich retten
+Ihr Fische landet in Berlin im Haifischbecken
+Sonny Black, S-O-Doppel-N-Y, weil ich jetzt mich dreihundert Geschwistern komm'Yeah
+[Hook]
+Scheißegal, ob du Krüppel jetzt den Harten schiebst
+Mich interessiert nicht, wer du bist, du bezahlst mir Kies
+Das hier ist Ghett-Ghett-Ghetto, auf den Straßen Krieg
+Das hier ist Highlife, kein Scheiß, frag die Street
+[Part 2]
+Was kommst du in mein Territorium?
+Fick nicht mit dem Weißen Hai
+Du kackst dir in die Hosen, nur das Zähne zeigen reicht
+Ihr seid zusammen stark, guck, ich bin allein krass
+Ich lad' dich ein ins Ghetto, vierzig Tonnen Beißkraft
+Ich fress' die Konkurrenz, zähl' die Bitches nie
+Fenster runter, dass du meine Ledersitze siehst
+Mein Bezirk, meine Stadt,Schwanz in Mund und Gangbang
+Ihr verfluchten Krüppelkinder, wandert aus wie Sentence
+Spast, ich hau' drauf, das ist Katzbach e.V
+Ich ficke nicht mit sieben sondern acht krassen Frau'n (yeah!)
+Meine Freunde sind die Felgen auf dem Asphalt
+Mach auf Paris, wenn du willst, dass ich deinen Welpen abknall'
+Dreizehnter war, ich rappe einfach zu hart
+Ich hab's noch nie gesagt, doch ich scheiß' auf Savas
+"Keep it real" war nicht mein Ding
+Es ging vom Bordstein zur Skyline
+Von der Fossil zu 'ner Breitling
+[Hook]
+Scheißegal, ob du Krüppel jetzt den Harten schiebst
+Mich interessiert nicht, wer du bist, du bezahlst mir Kies
+Das hier ist Ghett-Ghett-Ghetto, auf den Straßen Krieg
+Das hier ist Highlife, kein Scheiß, frag die Street
+[Part 3]
+Das ist das Arschloch deiner Frau, wo du Puderzucker reinbläst
+Sag mir nur, warum hat deine Hurenmutter MySpace?
+Kein Scheiß, Mann, du befindest dich im Highlife
+Ich bin Millionär, und ich hab's dir prophezeit, Nyze?
+Fick die Drecksszene, kack auf euer Aggro-Board
+Nach sechs Jahren hab' ich immer noch ein'n Hass auf Torch
+Du kommst im 7er, doch bleibst im Revier?
+Fick die deutsche Welle, denn wir brauchen kein'n Hitler hier
+Habt ihr gewusst: Fler, das Schwein, ist gepierct
+Wer verkauft so viel, ich hab' als Vergleich Britney Spears
+Ghetto-Gangster, Block-Repräsentant
+Was für Dickschädel, ich hau' deinen Kopf hier durch die Wand
+Härter, denn ich flex', Ärger mit Gesetz
+Ich hör', dass ich die Jugend nur verderb' mit den Tracks
+Unsere Herzen sind aus Blech
+Du willst mich decken, schreib ne' Mail
+Ich-bin-willig@bewerbung.sonnyblack
+[Hook]
+Scheißegal, ob du Krüppel jetzt den Harten schiebst
+Mich interessiert nicht, wer du bist, du bezahlst mir Kies
+Das hier ist Ghett-Ghett-Ghetto, auf den Straßen Krieg
+Das hier ist Highlife, kein Scheiß, frag die Street</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1135,8 +2034,73 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Part 1]Du wurdest mit der Krankheit geborenBevor du davon erfahren hast kam dir das Leben langweilig vorJa, so langweilig vorDie ganze Lust am Leben hast du leider durch das krank Sein verlorenDoch du kannst nichts dafür, nichts dafürWenn der Todesengel kommt und seine Hand dich berührtUnd er stand vor der Tür, langsam fiel das Atmen schwerDer Strick hatte sich langsam geschnürtUnd du hörst auf zu zählen wie viele Spritzen es schon warenSag wann hör'n sie auf dein' Körper zu quälen?Diese Wörter tun wehDie Diagnose, die der Arzt gibt, du sitzt da verstört, unter TränenUnd nichts scheint mehr fairDein Gesicht bleibt so leerIch schreib in das Gedicht deinen SchmerzDenn nur Gott hat dieses Recht dir zu geben und zu nehmenAber bete, denn die Hoffnung stirbt zuletzt[Hook]Wenn dieses Schicksal dich trifft, dann tut's wehDoch ich werd's nie versteh'n(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)Ich fall jetzt auf meine Knie und den Schmerz den beweis ich mit Tränen(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)Sag, warum betet man nur, wenns uns schlecht geht?Ich lass dich nicht geh'n(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)Lieber Gott, du darfst mir diesen Mensch einfach jetzt noch nicht nehmen(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)
-[Part 2]Jetzt wächst der Tod in dir drinUnd er wächst, und er wächstWarum waren die Ärzte so was von blind?Wie konnt' so was beginnen?Und wie lang du lebst kann nur Gott und kein Notarzt bestimmenDeine Tränen sagen mehrViel mehr als 1000 Worte, Worte die dein Leben grad erschwerenUnd wir stehen da am MeerDu willst fliegen wie ein Vogel, doch du bist in einem Käfig eingesperrtIch warte hier bei dirAuch wenn du deinen Verstand, den Glauben und die Haare jetzt verlierstGanz egal, wie sehr du frierstIch deck dich zu und pass auf das du den Atem inhalierstIch halt deine HandDeine Augen fallen zuMein Faust, guck, sie ballt sich zusammenBallt sich zusammenUnd es kommt wie es kommt, kein EntkommenDu wirst alt, du wirst krank[Hook][Part 3]Du warst ein so guter MenschZu jedem nett, hast gelacht, warum konnte Gott nicht so was erkennen?Sag was hast du nur getan?Was hast du schlimmes so getan, dass du glatt mit deinem Leben hier bezahlst?Und ich halt deine HandZum dritten Mal, vierten Mal, fünften MalSie wird kalt, schau mich anSchau mich an, wenn du mich hörstVerdammt, gib mir jetzt ein ZeichenBitte, du musst bleibenUnterdrücken fällt mir schwerIch kann die Tränen nicht mehr haltenKomm zurück, ich kann nicht mehrKomm zurück, ich schwör, ich sterb'Ich bin pausenlos geficktBitte lauf' nicht in das Licht
+          <t>[Part 1]
+Du wurdest mit der Krankheit geboren
+Bevor du davon erfahren hast kam dir das Leben langweilig vor
+Ja, so langweilig vor
+Die ganze Lust am Leben hast du leider durch das krank Sein verloren
+Doch du kannst nichts dafür, nichts dafür
+Wenn der Todesengel kommt und seine Hand dich berührt
+Und er stand vor der Tür, langsam fiel das Atmen schwer
+Der Strick hatte sich langsam geschnürt
+Und du hörst auf zu zählen wie viele Spritzen es schon waren
+Sag wann hör'n sie auf dein' Körper zu quälen?
+Diese Wörter tun weh
+Die Diagnose, die der Arzt gibt, du sitzt da verstört, unter Tränen
+Und nichts scheint mehr fair
+Dein Gesicht bleibt so leer
+Ich schreib in das Gedicht deinen Schmerz
+Denn nur Gott hat dieses Recht dir zu geben und zu nehmen
+Aber bete, denn die Hoffnung stirbt zuletzt
+[Hook]
+Wenn dieses Schicksal dich trifft, dann tut's weh
+Doch ich werd's nie versteh'n
+(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)
+Ich fall jetzt auf meine Knie und den Schmerz den beweis ich mit Tränen
+(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)
+Sag, warum betet man nur, wenns uns schlecht geht?
+Ich lass dich nicht geh'n
+(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)
+Lieber Gott, du darfst mir diesen Mensch einfach jetzt noch nicht nehmen
+(Doch es kommt, doch es kommt, doch es kommt, wie es kommt.)
+[Part 2]
+Jetzt wächst der Tod in dir drin
+Und er wächst, und er wächst
+Warum waren die Ärzte so was von blind?
+Wie konnt' so was beginnen?
+Und wie lang du lebst kann nur Gott und kein Notarzt bestimmen
+Deine Tränen sagen mehr
+Viel mehr als 1000 Worte, Worte die dein Leben grad erschweren
+Und wir stehen da am Meer
+Du willst fliegen wie ein Vogel, doch du bist in einem Käfig eingesperrt
+Ich warte hier bei dir
+Auch wenn du deinen Verstand, den Glauben und die Haare jetzt verlierst
+Ganz egal, wie sehr du frierst
+Ich deck dich zu und pass auf das du den Atem inhalierst
+Ich halt deine Hand
+Deine Augen fallen zu
+Mein Faust, guck, sie ballt sich zusammen
+Ballt sich zusammen
+Und es kommt wie es kommt, kein Entkommen
+Du wirst alt, du wirst krank
+[Hook]
+[Part 3]
+Du warst ein so guter Mensch
+Zu jedem nett, hast gelacht, warum konnte Gott nicht so was erkennen?
+Sag was hast du nur getan?
+Was hast du schlimmes so getan, dass du glatt mit deinem Leben hier bezahlst?
+Und ich halt deine Hand
+Zum dritten Mal, vierten Mal, fünften Mal
+Sie wird kalt, schau mich an
+Schau mich an, wenn du mich hörst
+Verdammt, gib mir jetzt ein Zeichen
+Bitte, du musst bleiben
+Unterdrücken fällt mir schwer
+Ich kann die Tränen nicht mehr halten
+Komm zurück, ich kann nicht mehr
+Komm zurück, ich schwör, ich sterb'
+Ich bin pausenlos gefickt
+Bitte lauf' nicht in das Licht
 [Hook]</t>
         </is>
       </c>
@@ -1191,10 +2155,102 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Refrain: Karel Gott]Für immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nichts ist für immerFür immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nichts ist für immer[Part 1: Bushido]Du scheißt auf die, die sinnlos redenDenn du bleibst ein Mann der TatArbeitest grad hartDen ganzen gottverdammten TagDu fühlst dich alt und schwachDu fühlst dich ausgelaugtUnd das Schwein von Chef lässt an dir die schlechte Laune rausWas für ein Pausenclown10 Jahre Blut und SchweißDu guckst in den SpiegelDieser Blick sagt: „Genug, es reicht!“Bei deiner Frau ist Funkstille, TrauerGeht sie fremd?Hast du echt noch Kraft dem Hund aufzulauern?Die Kinder ha’m dich auch belogenEgal ob Rauchen, Party, Saufen, DrogenSo hast du dein Blut nicht aufgezogenJeder denkt an sich, doch wer denkt an dich?Früher College-Jacken, jetzt der AnzugDu erkennst dich nicht!Dieses Leben ist halt einfach kalt und schwerUnd jedes Jahr kommen jetzt ein paar Falten mehrSag wie gern würdest du jetzt frei wie ein Adler fliegenKein’ Gedanken mehr verschwenden, irgendwann im Sarg zu liegen
-[Refrain: Karel Gott]Für immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nichts ist für immerFür immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nichts ist für immerDenn nichts ist für immerFür immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nichts ist für immer[Part 2: Bushido]Deine Eltern sind jetzt alt und krankUnd das ist wie ein schlechter FilmUnd du betest jetzt zu Gott bitte halt ihn anEs kommt dir vor wie gestern, du warst grade neunDein erstes Tor, man ist stolz wenn sich der Vater freutEr war dein Trainer, ihr kickt vor dem HausHeute läuft der Mann gebeugt mit 'nem Krückstock ins HausDu wirst traurig, dieser Mann der täglich mit dir draußen warSitzt ganz allein am Küchentisch und hat jetzt Grauen StarEr ist krank, krank weil ihm die Niere fehltDer Stock begleitet ihn wenn er heut' spazierengehtIhr geht es schlechter als ihm, aber keinen interessiert's der Arzt gibt ihr meist den letzten TerminWer kann die Zeit jedoch zurückdrehenWer gibt dir wieder diese Kraft, sie ist schwachGuck mal sie kann nur gebückt gehenUnd dir bleibt nur deine ErinnerungAlles ist vergänglich, doch wir wären gernFür immer jung, immer jung
-[Refrain: Karel Gott][Part 3: Bushido]Wie gern würde ich jetzt sagen„Hoffnung stirbt zuletzt“Was hab ich getan?Warum bestraft mich Gott mit diesem Pech?Wann wird mir bewusst, dass nichts hier für immer ist?Das alles irgendwann zerbrichtUnd ich dann in den Trümmern sitz’Genieß den Augenblick, wenn du mit deinen Freunden bistDiesen Moment mit deiner Mutter, denn dann freut sie sichIrgendwann wird sie geh’n, genieß den AugenblickDen du grade mit ihr teilst, alles andere braucht sie nichtUnd diese scheiß Gewohnheit, jeder denkt an sichKinder stressen ihren Vater, bis er lediglich zerbrichtBis er einfach nicht mehr kannUnd auch nicht mehr reden willWeil er wieder jung sein möchteUnd auch leben willNichts ist für immerWir wären gern für immer jungLass uns die Zeit, die bleibtEinfach nur verbringen undVergiss auch ein’ Tag den harten JobHol’ jetzt die Ray Ban, die Blue JeansSing für sie, Karel Gott!
-[Refrain: Karel Gott]Für immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nix ist für immerFür immer jung, ein Leben lang für immer jungIch werde einfach immer alles gebenEin Leben lang für immer jungIch werde einfach immer alles gebenFür immer im LebenFür immer, für immer… FÜR IMMER JUNG!</t>
+          <t>[Refrain: Karel Gott]
+Für immer jung, ein Leben lang für immer jungDu musst dich an die schöne Zeit erinnernDenn nichts ist für immer
+Für immer jung, ein Leben lang für immer jung
+Du musst dich an die schöne Zeit erinnern
+Denn nichts ist für immer
+[Part 1: Bushido]
+Du scheißt auf die, die sinnlos reden
+Denn du bleibst ein Mann der Tat
+Arbeitest grad hart
+Den ganzen gottverdammten Tag
+Du fühlst dich alt und schwach
+Du fühlst dich ausgelaugt
+Und das Schwein von Chef lässt an dir die schlechte Laune raus
+Was für ein Pausenclown
+10 Jahre Blut und Schweiß
+Du guckst in den Spiegel
+Dieser Blick sagt: „Genug, es reicht!“
+Bei deiner Frau ist Funkstille, Trauer
+Geht sie fremd?
+Hast du echt noch Kraft dem Hund aufzulauern?
+Die Kinder ha’m dich auch belogen
+Egal ob Rauchen, Party, Saufen, Drogen
+So hast du dein Blut nicht aufgezogen
+Jeder denkt an sich, doch wer denkt an dich?
+Früher College-Jacken, jetzt der Anzug
+Du erkennst dich nicht!
+Dieses Leben ist halt einfach kalt und schwer
+Und jedes Jahr kommen jetzt ein paar Falten mehr
+Sag wie gern würdest du jetzt frei wie ein Adler fliegen
+Kein’ Gedanken mehr verschwenden, irgendwann im Sarg zu liegen
+[Refrain: Karel Gott]
+Für immer jung, ein Leben lang für immer jung
+Du musst dich an die schöne Zeit erinnern
+Denn nichts ist für immer
+Für immer jung, ein Leben lang für immer jung
+Du musst dich an die schöne Zeit erinnern
+Denn nichts ist für immer
+Denn nichts ist für immer
+Für immer jung, ein Leben lang für immer jung
+Du musst dich an die schöne Zeit erinnern
+Denn nichts ist für immer
+[Part 2: Bushido]
+Deine Eltern sind jetzt alt und krank
+Und das ist wie ein schlechter Film
+Und du betest jetzt zu Gott bitte halt ihn an
+Es kommt dir vor wie gestern, du warst grade neun
+Dein erstes Tor, man ist stolz wenn sich der Vater freut
+Er war dein Trainer, ihr kickt vor dem Haus
+Heute läuft der Mann gebeugt mit 'nem Krückstock ins Haus
+Du wirst traurig, dieser Mann der täglich mit dir draußen war
+Sitzt ganz allein am Küchentisch und hat jetzt Grauen Star
+Er ist krank, krank weil ihm die Niere fehlt
+Der Stock begleitet ihn wenn er heut' spazierengeht
+Ihr geht es schlechter als ihm, aber keinen interessiert's der Arzt gibt ihr meist den letzten Termin
+Wer kann die Zeit jedoch zurückdrehen
+Wer gibt dir wieder diese Kraft, sie ist schwach
+Guck mal sie kann nur gebückt gehen
+Und dir bleibt nur deine Erinnerung
+Alles ist vergänglich, doch wir wären gern
+Für immer jung, immer jung
+[Refrain: Karel Gott]
+[Part 3: Bushido]
+Wie gern würde ich jetzt sagen
+„Hoffnung stirbt zuletzt“
+Was hab ich getan?
+Warum bestraft mich Gott mit diesem Pech?
+Wann wird mir bewusst, dass nichts hier für immer ist?
+Das alles irgendwann zerbricht
+Und ich dann in den Trümmern sitz’
+Genieß den Augenblick, wenn du mit deinen Freunden bist
+Diesen Moment mit deiner Mutter, denn dann freut sie sich
+Irgendwann wird sie geh’n, genieß den Augenblick
+Den du grade mit ihr teilst, alles andere braucht sie nicht
+Und diese scheiß Gewohnheit, jeder denkt an sich
+Kinder stressen ihren Vater, bis er lediglich zerbricht
+Bis er einfach nicht mehr kann
+Und auch nicht mehr reden will
+Weil er wieder jung sein möchte
+Und auch leben will
+Nichts ist für immer
+Wir wären gern für immer jung
+Lass uns die Zeit, die bleibt
+Einfach nur verbringen und
+Vergiss auch ein’ Tag den harten Job
+Hol’ jetzt die Ray Ban, die Blue Jeans
+Sing für sie, Karel Gott!
+[Refrain: Karel Gott]
+Für immer jung, ein Leben lang für immer jung
+Du musst dich an die schöne Zeit erinnern
+Denn nix ist für immer
+Für immer jung, ein Leben lang für immer jung
+Ich werde einfach immer alles geben
+Ein Leben lang für immer jung
+Ich werde einfach immer alles geben
+Für immer im Leben
+Für immer, für immer… FÜR IMMER JUNG!</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,8 +2304,73 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Part 1]Ich bleib ne scheiß Legende die am leben istGuck doch eins versteh ich nichtWarum seid ihr Missgeburten gegen mich?Pressefotos hier, Pressefotos daUnd sie fragen warum ich so krassen Hass auf Homos habIch hat' nie was gegen Homos, vieles war nur PromoMTV ich sag euch eins: real ist nur noch JokoGuck was ich erreicht hab, von ganz unten bis ganz obenTrotzdem sehen die Bullen gern mein Gesicht am BodenNeun mal Gold gegangen, meine Wand ja sie glitzertZieh dich aus, tanz für mich, WichserWer macht die Kassen auf? Wer macht die Flaschen auf?Ich bin Schuld? Bravo sag mir wer hat hier was versaut?Bild dir deine Meinung, ich scheiß drauf was die Bild-Zeitung schreibt, PunktAtze ich bleib jungDas ist die Spitze des Eisbergs, bleib ein Rolling StoneJunge bald ist mein Gesicht auf den Nike-Airs[Hook]Y-Y-YeahIhr habt diesen Stein ins Rollen gebrachtEin Rolling Stone, ich schreib Gold über NachtUnd ja die Straße weiß ich hab ihn ganz allein ins Rollen gebrachtIch kann nicht schlafen, der Erfolg hält mich wachIch dank dem Forum und den FansIhr habt diesen Stein ins Rollen gebrachtEin Rolling Stone man ich wolltes so krass, und Gangster-Rap wird ewig lebenIch hab diesen Stein ins Rollen gebrachtVerhafte mich und ich geh stolz in den KnastIch bleib ein Rolling Stone
-[Part 2]Steine rollen, ich hab dieses ganze Land verändertMode-Praktikanten wurden GangsterBaut mir ein Denkmal, ein Denkmal aus ChromUnd in meiner Hand ein Spiegel mit erkennbarem KoksBin ein Fan von KanonenDu Stand-of-Mission, du willst Beef mit dem Gee und du hängst am BalkonLetztendlich der Tod kann dich von der Therapie befreienAdios Amigos, c'est la vie, good byeErinner' dich an mich, der Boss der junge BlackJa und deine Eier sind nicht nur seit Ostern wieder wegDiskutier nicht mit uns, es macht keinen Sinn, mach dein Ding, ja du Mastschwein stinkstDie Koffer voll mit Cash, Oli Pocher gibt mir RechtWenn ich in den Dschungel flieg und Ross danach erstech'Ja ich box mich ins Geschäft, ich bleib schwer kriminellBleib ein Rolling Stone, Schnauze ich frag: „Wer will paar Schellen?"[Hook][Part 3]Ich schreibe jetzt die Straßen-Symphonie, tätowier's dirFickt deine Mutter jeden? Wir spekulieren hierHab das geschafft was noch keiner geschafft hatJa weil mich der Reichstag verknackt hatUnd ich hab mein Buch draußenDu willst von Playboy in die Juice laufen?Wissen wies bei Aggro war? Ganz einfach: Buch kaufenSag wer ist so legendär wie ich?Mein Rezept: einfach Stickle, rappen, fertig, HitHab das gemacht worauf du neidisch bistUnd wenn schon, mein Auto ist so Luxus, schon allein die LenkungIch hab ihn ins Rollen gebrachtJa vom Dealer zu 'nem RapstarIch bezahl' mit Visa wenn ich Sex habIch seh' den Untergrund als Fluch25 Stunden in der BootIch bleib ein Rolling StoneYeah ich zieh die Knarre im GerichtUnd ich drück ihm die Zigarre ins Gesicht
+          <t>[Part 1]
+Ich bleib ne scheiß Legende die am leben ist
+Guck doch eins versteh ich nicht
+Warum seid ihr Missgeburten gegen mich?
+Pressefotos hier, Pressefotos da
+Und sie fragen warum ich so krassen Hass auf Homos hab
+Ich hat' nie was gegen Homos, vieles war nur Promo
+MTV ich sag euch eins: real ist nur noch Joko
+Guck was ich erreicht hab, von ganz unten bis ganz oben
+Trotzdem sehen die Bullen gern mein Gesicht am Boden
+Neun mal Gold gegangen, meine Wand ja sie glitzert
+Zieh dich aus, tanz für mich, Wichser
+Wer macht die Kassen auf? Wer macht die Flaschen auf?
+Ich bin Schuld? Bravo sag mir wer hat hier was versaut?
+Bild dir deine Meinung, ich scheiß drauf was die Bild-Zeitung schreibt, Punkt
+Atze ich bleib jung
+Das ist die Spitze des Eisbergs, bleib ein Rolling Stone
+Junge bald ist mein Gesicht auf den Nike-Airs
+[Hook]
+Y-Y-Yeah
+Ihr habt diesen Stein ins Rollen gebracht
+Ein Rolling Stone, ich schreib Gold über Nacht
+Und ja die Straße weiß ich hab ihn ganz allein ins Rollen gebracht
+Ich kann nicht schlafen, der Erfolg hält mich wach
+Ich dank dem Forum und den Fans
+Ihr habt diesen Stein ins Rollen gebracht
+Ein Rolling Stone man ich wolltes so krass, und Gangster-Rap wird ewig leben
+Ich hab diesen Stein ins Rollen gebracht
+Verhafte mich und ich geh stolz in den Knast
+Ich bleib ein Rolling Stone
+[Part 2]
+Steine rollen, ich hab dieses ganze Land verändert
+Mode-Praktikanten wurden Gangster
+Baut mir ein Denkmal, ein Denkmal aus Chrom
+Und in meiner Hand ein Spiegel mit erkennbarem Koks
+Bin ein Fan von Kanonen
+Du Stand-of-Mission, du willst Beef mit dem Gee und du hängst am Balkon
+Letztendlich der Tod kann dich von der Therapie befreien
+Adios Amigos, c'est la vie, good bye
+Erinner' dich an mich, der Boss der junge Black
+Ja und deine Eier sind nicht nur seit Ostern wieder weg
+Diskutier nicht mit uns, es macht keinen Sinn, mach dein Ding, ja du Mastschwein stinkst
+Die Koffer voll mit Cash, Oli Pocher gibt mir Recht
+Wenn ich in den Dschungel flieg und Ross danach erstech'
+Ja ich box mich ins Geschäft, ich bleib schwer kriminell
+Bleib ein Rolling Stone, Schnauze ich frag: „Wer will paar Schellen?"
+[Hook]
+[Part 3]
+Ich schreibe jetzt die Straßen-Symphonie, tätowier's dir
+Fickt deine Mutter jeden? Wir spekulieren hier
+Hab das geschafft was noch keiner geschafft hat
+Ja weil mich der Reichstag verknackt hat
+Und ich hab mein Buch draußen
+Du willst von Playboy in die Juice laufen?
+Wissen wies bei Aggro war? Ganz einfach: Buch kaufen
+Sag wer ist so legendär wie ich?
+Mein Rezept: einfach Stickle, rappen, fertig, Hit
+Hab das gemacht worauf du neidisch bist
+Und wenn schon, mein Auto ist so Luxus, schon allein die Lenkung
+Ich hab ihn ins Rollen gebracht
+Ja vom Dealer zu 'nem Rapstar
+Ich bezahl' mit Visa wenn ich Sex hab
+Ich seh' den Untergrund als Fluch
+25 Stunden in der Boot
+Ich bleib ein Rolling Stone
+Yeah ich zieh die Knarre im Gericht
+Und ich drück ihm die Zigarre ins Gesicht
 [Hook]</t>
         </is>
       </c>
@@ -1304,8 +2425,65 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Part 1]Junge ich box dich über 50 Kilometer hochUnd ich scheiß drauf, ich gehe auch auf Brillenträger losGuck ich fick deinen Studentenrap, hier geht's um BreitreifenAußer mir braucht hier keiner Videos einreichenDas hier ist Stacheldrahtrap also schütz dichIch hab bisschen Durst also Keck mach dich nützlichWir sind einfach ein Netzwerk von KriminellenIch spuck auf Meinungen die Experten immer fällenKomm du Missgeburt du BriefmarkensammlerDeine Frau ist nackt, ja sie riecht den ChampagnerKing auf der Straße, Pate im DeutschrapDer Fame verhindert nicht, dass ich Nasen von Toys brech'Scheiß auf Lloyd Banks, weil er kein Berliner ist(Tomb?) Ihr habt nichts aber Sony BMG hat michDas ist der Boomerang, den ihr Toys geworfen habtIch stech deine Reifen jetzt vom Porsche ab[Hook](x2)Sorry ihr könnt hier nicht rappenDachtet ihr könntet mich treffenRed doch weiter von Schwänzen man denn du kennst sie am bestenDieser Gangster macht ActionHaltet endlich die FressenDir bleibt nichts übrig außer dich an das Lenkrad zu setzen
-[Part 2]Sag was fällt euch ein diesen Boomerang zu schmeißen?Immer große Fresse doch ihr blutet dann am meistenIhr Vollkrüppel macht jetzt auf wichtig? Fickt euchIch zeig euch Schlampen ohne Gnade wies im Biz läuftWies mit Bizz läuft der Pit beißt hier jeden todKomm du kleine Pussy jetzt versteck dich im MädchenkloIch hab leider kein Respekt Junge geh bei SeiteBei deiner Drecksgeburt sahst du aus wie EselsscheißeSchreib bei Myspace, schreib du willst mein Freund seinIch lösch dich ohne einen Grund, weil ihr Toys seidWas kann ich dafür? Scheiß drauf was du Nutte machstBlumentopf ich hab gehört, dass ihr die gleiche Mutter habt?Scheiß auf Splash, ich scheiß auch auf das Hip-Hop-OpenIch würd' da nicht mal auftreten sogar wenn ich broke binJetzt kommt der Boomerang, den ich diesmal selber schmeiß'Doch er trifft mich nicht, weil ihr Schwänze seid[Hook](x2)[Part 3]Ja an das Lenkrad zu setzen, Hier kommen Gangster die flexenHör auf zu reden Junge ich kenn' euch blinder am bestenFresse Testo am Morgen, schlaf' auf der HantelbankUnd ich fick mit deiner Mutter morgen auf dem StandesamtK-K-K-K-Krass oder? Ich kauf um acht KokaIch wäre asozial, guck ich lach mich schlapp OpaIch bleib ein New Kid on the blockUnd ich scheiß voll auf dein Demo-TapeHör jetzt auf du fickst unsern KopfIch bleib ein Schwerkrimineller der ein Fick gibtIch hab schon mal gesagt ich box euch in die SixtiesIch hab schon mal gesagt, dass ihr alle Schwänze seidZwei Männer haben nichts verloren bei nem CandlelightIch bleib der King, King, ich bleib der Boss, BossUnd ich find zu dir passt der Name Rotz-PotzIhr habt den Boomerang geschmissen also fickt euchKingbushido EGJ rich Boys
+          <t>[Part 1]
+Junge ich box dich über 50 Kilometer hoch
+Und ich scheiß drauf, ich gehe auch auf Brillenträger los
+Guck ich fick deinen Studentenrap, hier geht's um Breitreifen
+Außer mir braucht hier keiner Videos einreichen
+Das hier ist Stacheldrahtrap also schütz dich
+Ich hab bisschen Durst also Keck mach dich nützlich
+Wir sind einfach ein Netzwerk von Kriminellen
+Ich spuck auf Meinungen die Experten immer fällen
+Komm du Missgeburt du Briefmarkensammler
+Deine Frau ist nackt, ja sie riecht den Champagner
+King auf der Straße, Pate im Deutschrap
+Der Fame verhindert nicht, dass ich Nasen von Toys brech'
+Scheiß auf Lloyd Banks, weil er kein Berliner ist
+(Tomb?) Ihr habt nichts aber Sony BMG hat mich
+Das ist der Boomerang, den ihr Toys geworfen habt
+Ich stech deine Reifen jetzt vom Porsche ab
+[Hook](x2)
+Sorry ihr könnt hier nicht rappen
+Dachtet ihr könntet mich treffen
+Red doch weiter von Schwänzen man denn du kennst sie am besten
+Dieser Gangster macht Action
+Haltet endlich die Fressen
+Dir bleibt nichts übrig außer dich an das Lenkrad zu setzen
+[Part 2]
+Sag was fällt euch ein diesen Boomerang zu schmeißen?
+Immer große Fresse doch ihr blutet dann am meisten
+Ihr Vollkrüppel macht jetzt auf wichtig? Fickt euch
+Ich zeig euch Schlampen ohne Gnade wies im Biz läuft
+Wies mit Bizz läuft der Pit beißt hier jeden tod
+Komm du kleine Pussy jetzt versteck dich im Mädchenklo
+Ich hab leider kein Respekt Junge geh bei Seite
+Bei deiner Drecksgeburt sahst du aus wie Eselsscheiße
+Schreib bei Myspace, schreib du willst mein Freund sein
+Ich lösch dich ohne einen Grund, weil ihr Toys seid
+Was kann ich dafür? Scheiß drauf was du Nutte machst
+Blumentopf ich hab gehört, dass ihr die gleiche Mutter habt?
+Scheiß auf Splash, ich scheiß auch auf das Hip-Hop-OpenIch würd' da nicht mal auftreten sogar wenn ich broke bin
+Jetzt kommt der Boomerang, den ich diesmal selber schmeiß'
+Doch er trifft mich nicht, weil ihr Schwänze seid
+[Hook](x2)
+[Part 3]
+Ja an das Lenkrad zu setzen, Hier kommen Gangster die flexen
+Hör auf zu reden Junge ich kenn' euch blinder am besten
+Fresse Testo am Morgen, schlaf' auf der Hantelbank
+Und ich fick mit deiner Mutter morgen auf dem Standesamt
+K-K-K-K-Krass oder? Ich kauf um acht Koka
+Ich wäre asozial, guck ich lach mich schlapp Opa
+Ich bleib ein New Kid on the block
+Und ich scheiß voll auf dein Demo-Tape
+Hör jetzt auf du fickst unsern Kopf
+Ich bleib ein Schwerkrimineller der ein Fick gibt
+Ich hab schon mal gesagt ich box euch in die Sixties
+Ich hab schon mal gesagt, dass ihr alle Schwänze seid
+Zwei Männer haben nichts verloren bei nem Candlelight
+Ich bleib der King, King, ich bleib der Boss, Boss
+Und ich find zu dir passt der Name Rotz-Potz
+Ihr habt den Boomerang geschmissen also fickt euch
+Kingbushido EGJ rich Boys
 [Hook](x2)</t>
         </is>
       </c>
@@ -1360,8 +2538,72 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1]Junge mach dein Geld mit TripsCool ist der, der Schule schwänztGlaub mir es wird sonst auch deine Jugend sein, die du verpennstMach jetzt die Kippe an man auch wenn du 13 bistSchuld sind die andern Atze, guck jeder scheißt auf dichUnd ich begreif' es nicht, ich geh raus, deal und klau'Ich seh' den Teufel, ich muss nur in den Spiegel schauenIch werd' verknackt, er sagt "Mach dir kein Kopf darüber"Ich hasse ihn so sehr doch wir bleiben trotzdem BrüderEr sagt mir was ich bin, er sagt mir was ich singEr sagt zu mir:" Diss sofort mal jedes Spaßtenkind!"So viele Feinde und sie kommen wegen ihmSchwarzes Haar, Ghettostar, klar er kommt aus BerlinEr zwingt mich hart zu bleibenUnd Deutschrap zu zerreißenEr sagt bleib auf der Street und geh nicht weg wie die meistenScheiß egal wie ich mich aufführ'Du öffnest diesem Mann im Spiegel jetzt die Haustür[Hook]Jetzt wirf ein Blick in meinen SpiegelIch trag' ihn tief in mirUnd ich spreche von dem Hass weil ich die Straßen reflektier'Wirf ein Blick in meinen SpiegelJetzt siehst du diesen ZornUnd die Liebe die mal da war sie ist leider tief-gefrorenWirf ein Blick in meinen SpiegelJetzt siehst du diesen Schmerz, sag mir siehst du diesen Schmerz?Scheiße vieles lief verkehrtUnd du blickst in diesen SpiegelAus Sonne wird jetzt NachtVielen Dank an alle ihr habt dieses Monster hier gemacht
-[Part 2]Du bleibst kriminell, deswegen scheiß auf ArbeitsamtHäng' am Block kauf dir ein MicSchwänz' Arbeitsstunden, zieh einen durch, nimm Papier und schreibSchreib, denn bei Hunderttausend glitzert dieses GoldWenn du ein Arschloch bist hast du den Schlüssel zum ErfolgDas ist stolz, bleib ein Proll, bleib Electro wenn du rappstIch bin härter als der Kerner ich zeig Ghetto-IntellektEr kann reden, ein Wunder, die Presse ist entsetztDer Kanack der gerad' im Boss-Anzug steckt heißt Sonny BlackUnd sie quatschen mich voll von wegen ich mach Kinder krankKinder krank? Ich denk nicht, ich hab sie einfach in der HandUnd sie tun, was ich sag, wenn der Mann im Spiegel sprichtDann sprech' ich, und sie lieben es sich anzuziehen wie ichSie kopieren meinen Slang, die Tattoos und den StyleDoch ich bleib hundsgemein, unerreicht, Nummer einsGuck doch weiter nur die Liebe zähltDann pust' die Kerze aus und du kannst mich im Spiegel sehen[Hook][Part 3]Ich heiße euch herzlich willkommen in meiner kranken WeltDu kennst dich kein bisschen ausKleine Fische, Ghetto-Zirkus, bis hin zu verrückten ClownsEr zwingt mich krank zu sein plus noch bekannt zu seinSo arrogant zu scheinen, ich fühl' mich ganz alleinDas wird dir jetzt zu viel, Titelbild, JuiceWill dich killen, ich hör' Stimmen von meinem Spiegelbild, tu'sDu bleibst schwach, ich bleib starkDu machst schlapp, ich bleib hartSchlag die Nägel einfach jetzt mit voller Kraft in den SargK, K, King Anis Mohammed, Ich bleib auf der FluchtWill sehen ob der Mann im Spiegel jetzt zerbricht wenn ich ihn schubs'Ich dreh' durch, weil der Typ mich nie aussprechen lässtBin im Knast und ich frag ihn, soll ich ausbrechen? Yes!Dann vertick' ich in der Oberliga mein WeißDrogendealer-Lifestyle, Kokainer I likeIch werd' deinen Frieden nehmenUnd schalt die Glotze jetzt nicht an, du kannst mich nachts im Spiegel sehen
+          <t>[Part 1]
+Junge mach dein Geld mit Trips
+Cool ist der, der Schule schwänzt
+Glaub mir es wird sonst auch deine Jugend sein, die du verpennst
+Mach jetzt die Kippe an man auch wenn du 13 bist
+Schuld sind die andern Atze, guck jeder scheißt auf dich
+Und ich begreif' es nicht, ich geh raus, deal und klau'
+Ich seh' den Teufel, ich muss nur in den Spiegel schauen
+Ich werd' verknackt, er sagt "Mach dir kein Kopf darüber"
+Ich hasse ihn so sehr doch wir bleiben trotzdem Brüder
+Er sagt mir was ich bin, er sagt mir was ich sing
+Er sagt zu mir:" Diss sofort mal jedes Spaßtenkind!"
+So viele Feinde und sie kommen wegen ihm
+Schwarzes Haar, Ghettostar, klar er kommt aus Berlin
+Er zwingt mich hart zu bleiben
+Und Deutschrap zu zerreißen
+Er sagt bleib auf der Street und geh nicht weg wie die meisten
+Scheiß egal wie ich mich aufführ'
+Du öffnest diesem Mann im Spiegel jetzt die Haustür
+[Hook]
+Jetzt wirf ein Blick in meinen Spiegel
+Ich trag' ihn tief in mir
+Und ich spreche von dem Hass weil ich die Straßen reflektier'
+Wirf ein Blick in meinen Spiegel
+Jetzt siehst du diesen Zorn
+Und die Liebe die mal da war sie ist leider tief-gefroren
+Wirf ein Blick in meinen Spiegel
+Jetzt siehst du diesen Schmerz, sag mir siehst du diesen Schmerz?
+Scheiße vieles lief verkehrt
+Und du blickst in diesen Spiegel
+Aus Sonne wird jetzt Nacht
+Vielen Dank an alle ihr habt dieses Monster hier gemacht
+[Part 2]
+Du bleibst kriminell, deswegen scheiß auf Arbeitsamt
+Häng' am Block kauf dir ein Mic
+Schwänz' Arbeitsstunden, zieh einen durch, nimm Papier und schreib
+Schreib, denn bei Hunderttausend glitzert dieses Gold
+Wenn du ein Arschloch bist hast du den Schlüssel zum Erfolg
+Das ist stolz, bleib ein Proll, bleib Electro wenn du rappst
+Ich bin härter als der Kerner ich zeig Ghetto-IntellektEr kann reden, ein Wunder, die Presse ist entsetztDer Kanack der gerad' im Boss-Anzug steckt heißt Sonny BlackUnd sie quatschen mich voll von wegen ich mach Kinder krankKinder krank? Ich denk nicht, ich hab sie einfach in der Hand
+Und sie tun, was ich sag, wenn der Mann im Spiegel spricht
+Dann sprech' ich, und sie lieben es sich anzuziehen wie ich
+Sie kopieren meinen Slang, die Tattoos und den Style
+Doch ich bleib hundsgemein, unerreicht, Nummer eins
+Guck doch weiter nur die Liebe zählt
+Dann pust' die Kerze aus und du kannst mich im Spiegel sehen
+[Hook]
+[Part 3]
+Ich heiße euch herzlich willkommen in meiner kranken Welt
+Du kennst dich kein bisschen aus
+Kleine Fische, Ghetto-Zirkus, bis hin zu verrückten Clowns
+Er zwingt mich krank zu sein plus noch bekannt zu sein
+So arrogant zu scheinen, ich fühl' mich ganz allein
+Das wird dir jetzt zu viel, Titelbild, Juice
+Will dich killen, ich hör' Stimmen von meinem Spiegelbild, tu's
+Du bleibst schwach, ich bleib stark
+Du machst schlapp, ich bleib hart
+Schlag die Nägel einfach jetzt mit voller Kraft in den Sarg
+K, K, King Anis Mohammed, Ich bleib auf der Flucht
+Will sehen ob der Mann im Spiegel jetzt zerbricht wenn ich ihn schubs'
+Ich dreh' durch, weil der Typ mich nie aussprechen lässt
+Bin im Knast und ich frag ihn, soll ich ausbrechen? Yes!
+Dann vertick' ich in der Oberliga mein Weiß
+Drogendealer-Lifestyle, Kokainer I like
+Ich werd' deinen Frieden nehmen
+Und schalt die Glotze jetzt nicht an, du kannst mich nachts im Spiegel sehen
 [Hook]</t>
         </is>
       </c>
@@ -1416,7 +2658,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ich bin müde, müde von der ganzen ScheißeIhr wart dabei, ihr wart ein Teil von dieser langen ReiseDankeschön, ohne euch wär's niemals wahr gewordenIhr bleibt Familie deshalb fühlt sich euer Star geborgenWir hatten gute Zeiten, es gab auch schlechte ZeitenIhr seit treu geblieben, wolltet euch für Sonny Black entscheidenWolltet keine andere Mucke pumpem, außer meine8 Jahre Rap, über Mutter bumsen war das geilsteIhr könnt die ganzen Texte, ihr könnt sie mitreimen, mitschreienMit trockenem Pullover geht ihr nicht heimMeine Texte, meine Texte ja die kennt jederUnd ja sie schreien: "Hey, ich bin der..."Das ist Adrenalin, jedes Konzert war krassSie verstehen uns nicht, das ist der Grund dass ich bei Kerner quatschIhm erzähl' wie ich leb', ich erzähl' von StraßenjungsNach der Sendung bleib ich eh für's ZDF, ein StraßenhundSchon okay, hör zu für Lehrer mach ich keine TracksIch schreib für meine Fans, das hier ist mein RespektSie wissen was ich mein, sie bleiben auch dankbarSie wählen den Ghettopräsidenten in den LandtagIch wollt' nach 7 aufhören zu rappen, doch was wird aus euch?Wenn der Gangster aufhört zu rappen. Mann, ich weiß es nicht!Ich glaub' ich könnt' mich niemals dran gewöhn'Ihr seid die Besten. Das geht an euch. Dankeschön!</t>
+          <t>Ich bin müde, müde von der ganzen Scheiße
+Ihr wart dabei, ihr wart ein Teil von dieser langen Reise
+Dankeschön, ohne euch wär's niemals wahr geworden
+Ihr bleibt Familie deshalb fühlt sich euer Star geborgen
+Wir hatten gute Zeiten, es gab auch schlechte Zeiten
+Ihr seit treu geblieben, wolltet euch für Sonny Black entscheiden
+Wolltet keine andere Mucke pumpem, außer meine
+8 Jahre Rap, über Mutter bumsen war das geilste
+Ihr könnt die ganzen Texte, ihr könnt sie mitreimen, mitschreien
+Mit trockenem Pullover geht ihr nicht heim
+Meine Texte, meine Texte ja die kennt jeder
+Und ja sie schreien: "Hey, ich bin der..."
+Das ist Adrenalin, jedes Konzert war krass
+Sie verstehen uns nicht, das ist der Grund dass ich bei Kerner quatschIhm erzähl' wie ich leb', ich erzähl' von StraßenjungsNach der Sendung bleib ich eh für's ZDF, ein Straßenhund
+Schon okay, hör zu für Lehrer mach ich keine Tracks
+Ich schreib für meine Fans, das hier ist mein Respekt
+Sie wissen was ich mein, sie bleiben auch dankbar
+Sie wählen den Ghettopräsidenten in den Landtag
+Ich wollt' nach 7 aufhören zu rappen, doch was wird aus euch?
+Wenn der Gangster aufhört zu rappen. Mann, ich weiß es nicht!
+Ich glaub' ich könnt' mich niemals dran gewöhn'
+Ihr seid die Besten. Das geht an euch. Dankeschön!</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1470,9 +2733,60 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Part 1]Ich trag' die Skimaske auf Arbeit, guck wir stürmen dein KonzertFick die Würde weil ihr Krüppel nur noch Würmer seid wie FlerScheiß drauf wer du bist, fick dich Keck ich raste ausGuck die größe meiner Faust, so ist dein Auge passt genauBoxe Clowns die auf lustig tun, Yorckstraße MuskelcrewSchenk' mir zum Geburtstag einfach einen PuffbesuchDas hier ist Al-Bustan, Skimaskengang, 600 Pferde komm versuch die Gee's abzuhäng', Ich ziel' auf dich Hemd, dein Genick bricht du FreakDer Dealer hier vom Block macht ein Picknick auf Speed, (HighSpeed)Du Krawattenkasper Papalapapp, Du Opfer block' mal diesen Nackenklatscher-Uppercut ab, Das sind die Straßen von Berlin, nicht die Straßen der BronxScheiß auf alle, meine Jungs sind aus dem Gaza gekomm'(Araberbeton)Stop, die Securities drehn', red' nicht von Ghetto, keiner von euchDrückt sich Müll in die Venen, Yeah! Ich weiß nicht ob es dir schonAufgefallen ist, doch bis jetzt ist noch keine Geisel aus dem WaldEntwischt, Du lebst für Hip Hop? Krepier an deinem LeserbriefNeuköln, wo du keine blassen Brillenträger siehstNeuköln, wo du Messer bei Problemen ziehstNeuköln, weil jeder meiner Brüder seine Eltern liebtSeinen Eltern gibt, und seinen Brüdern gibtSie machen Disstracks, und wir verprügeln sie[Hook]Und sie reden so wie damals jeden Tag von mir, Apres Ski!Jetzt kommen Gee's, hier wird jeder abkassierenDrück' die Kugeln in die Trommel, Kugelsichere Gee'sFenster zu, Gangstercrew, Hure Rest in Peace
-Und sie reden so wie damals jeden Tag von mir, Apres Ski!Und dich abzuziehn' gehört zu meinen ManierenSchmeiß' die Basy unter'n Sitz Kugelsichere Gee'sFenster zu, Gangstercrew, Hure Rest in Peace[Part 2]Schwarze Augen; Schwarzes Haar; braune Haut ich stell es klarDu bist nicht Killa Cam', (D-D-D-D-D-D-Deutsch)Ihr tragt Baseballcaps? ich zieh' die Skimaske auf!Jeder weiß Paul ihr seid in Berlin abgetauchtKipp' Benzin vor dein Haus, ich bleib organisiertIch will deine Mutter ficken, unterschreib' auf dem Papier, Yeah!Ich mach Stress, einmal hier; einmal dortHör' auf davon zu rappen es passiert nichts im DorfIch kastrier' dich wie Torch! (Fick Torch!)Junge ich bin Araber, Fresse du kassierst jetzt wie George!Das ist Straßenkampf, wozu brauch das Schienenbein die Schoner?Samy, wir begraben jetzt das Kriegsbeil du Opa!Freestyle du Opa, ich schließ' die GeschäfteIch antworte nach deinem "Keep it Real" Halt die Fresse!Das hier ist Gangstarap, mein Flow ist NervengasScheiß auf eure Jams, Untergrundrapper sterben gradIch bring' den Knastrap direkt vom HinterhofMit meinem Pokerface werden eure Kinder großEr kommt von mir der "FickdeineMutterSlang"Fick deine Attitude, Fick deine Rucksackgang!Ich will sehen ob du dich raus traust ohne SchutzIch brech' die Tür von deinem Haus auf ohne JucksIch hab' gehört ich würde Schutzgeld bezahlen?Ich würd' nie für meinen Schutz Geld bezahlen!
-Sonny Black[Hook]</t>
+          <t>[Part 1]
+Ich trag' die Skimaske auf Arbeit, guck wir stürmen dein Konzert
+Fick die Würde weil ihr Krüppel nur noch Würmer seid wie Fler
+Scheiß drauf wer du bist, fick dich Keck ich raste aus
+Guck die größe meiner Faust, so ist dein Auge passt genau
+Boxe Clowns die auf lustig tun, Yorckstraße Muskelcrew
+Schenk' mir zum Geburtstag einfach einen Puffbesuch
+Das hier ist Al-Bustan, Skimaskengang,600 Pferde komm versuch die Gee's abzuhäng', Ich ziel' auf dich Hemd, dein Genick bricht du Freak
+Der Dealer hier vom Blockmacht ein Picknick auf Speed, (HighSpeed)
+Du Krawattenkasper Papalapapp, Du Opfer block' mal diesen Nackenklatscher-Uppercut ab, Das sind die Straßen von Berlin, nicht die Straßen der Bronx
+Scheiß auf alle, meine Jungs sind aus dem Gaza gekomm'(Araberbeton)
+Stop, die Securities drehn', red' nicht von Ghetto, keiner von euch
+Drückt sich Müll in die Venen, Yeah! Ich weiß nicht ob es dir schon
+Aufgefallen ist, doch bis jetzt ist noch keine Geisel aus dem Wald
+Entwischt, Du lebst für Hip Hop? Krepier an deinem Leserbrief
+Neuköln, wo du keine blassen Brillenträger siehstNeuköln, wo du Messer bei Problemen ziehst
+Neuköln, weil jeder meiner Brüder seine Eltern liebt
+Seinen Eltern gibt, und seinen Brüdern gibt
+Sie machen Disstracks, und wir verprügeln sie
+[Hook]
+Und sie reden so wie damals jeden Tag von mir, Apres Ski!
+Jetzt kommen Gee's, hier wird jeder abkassieren
+Drück' die Kugeln in die Trommel, Kugelsichere Gee's
+Fenster zu, Gangstercrew, Hure Rest in Peace
+Und sie reden so wie damals jeden Tag von mir, Apres Ski!
+Und dich abzuziehn' gehört zu meinen Manieren
+Schmeiß' die Basy unter'n Sitz Kugelsichere Gee's
+Fenster zu, Gangstercrew, Hure Rest in Peace
+[Part 2]
+Schwarze Augen; Schwarzes Haar; braune Haut ich stell es klar
+Du bist nicht Killa Cam', (D-D-D-D-D-D-Deutsch)
+Ihr tragt Baseballcaps? ich zieh' die Skimaske auf!
+Jeder weiß Paul ihr seid in Berlin abgetaucht
+Kipp' Benzin vor dein Haus, ich bleib organisiert
+Ich will deine Mutter ficken, unterschreib' auf dem Papier, Yeah!
+Ich mach Stress, einmal hier; einmal dort
+Hör' auf davon zu rappen es passiert nichts im Dorf
+Ich kastrier' dich wie Torch! (Fick Torch!)
+Junge ich bin Araber, Fresse du kassierst jetzt wie George!
+Das ist Straßenkampf, wozu brauch das Schienenbein die Schoner?
+Samy, wir begraben jetzt das Kriegsbeil du Opa!
+Freestyle du Opa, ich schließ' die Geschäfte
+Ich antworte nach deinem "Keep it Real" Halt die Fresse!
+Das hier ist Gangstarap, mein Flow ist Nervengas
+Scheiß auf eure Jams, Untergrundrapper sterben grad
+Ich bring' den Knastrap direkt vom Hinterhof
+Mit meinem Pokerface werden eure Kinder groß
+Er kommt von mir der "FickdeineMutterSlang"
+Fick deine Attitude, Fick deine Rucksackgang!
+Ich will sehen ob du dich raus traust ohne Schutz
+Ich brech' die Tür von deinem Haus auf ohne Jucks
+Ich hab' gehört ich würde Schutzgeld bezahlen?Ich würd' nie für meinen Schutz Geld bezahlen!
+Sonny Black
+[Hook]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1526,8 +2840,64 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[Hook]Sag mir tausend Mal, ich wär primitiv, doch wen interessiert´sDenn ich bin Ghetto, so GhettoLeg mir 10.000 Euro auf den Tisch, doch trotzdem tick ich weiter KoksDenn ich bin Ghetto, so GhettoDu hast mich angezeigt und ich hab dich geschlagen, frag jetzt nicht warum, JungeIch bin Ghetto, so GhettoDas ist Electro Ghetto Rap, Sonny Black, wen interessiert´s, MannIch bin Ghetto, so Ghetto[Part 1]Ich zeig dir Ghettos, wo es keinen Kamin im Viertel gibtIch erzähl euch jetzt mal etwas vom Satellitenschüssel-CribUnsere Wände voll verschmiert, Fenster sind verschlossenPenner sind am Frieren und ein Rentner wird erstochenKleine Kinder spielen, spielen mit dem GlückIn meiner Kindheit wurden Klingen hier mit sieben schon gezücktDas Blaulicht hält wachMann, ich ficke Prison BreakZeig mir, Bruder, wie man wirklich ausbricht im KnastJeder Traum ist zerplatzt, die Seifenblase stirbtKeine Spuren, wenn man Messer in die Seitenstraße wirftKeine Spuren, weil man hier zusammenhält und schweigtAußerdem zählt in dieser kalten Welt nur einsFicken oder selbst gefickt werdenEntweder fickst du mit der Schlampe oderDu wirst morgen selber auf dem Strich sterbenVor Gericht wird jeder von uns schweigenUnd dir bleibt nichts übrig, außer Zähne hier zu zeigenDer Anwalt wird hier bestochenJa, dein Anwalt wird hier zerstochenUnsere Gegend, Junkies haben sich hier verkrochenDu willst hier überleben? Fick dein Erste-Hilfe-BuchMein Ghetto, das hier ist mein Bilderbuch
-[Hook][Part 2]Ich zeig dir plötzlich, schau, wie Bullen undercover warten, Stop!Wir machen Randale und die Panzerwagen startenIm Ghetto trägt man Tyson-SchnittErster Mai, wir schmeißen Steine auf die SchweineFick das Reizgas in meinem GesichtDer meistgesuchte Rapper, Staatsfeind Nr.1Und trotzdem bleib ich Ghettostar. Zeig mir Jungs am MicDie so gangsta flowen. Unsere Weste stoppt die KugelnErsguterschütze zielt Jungs in Action, fickt die SkrupelMic aus. Das ist der Ort voller ArmutScheiß drauf, ich fahr in dein Dorf und ich schlag zuIch muss nichts sagenSchau dir die Straßen und die Junkies anDie Ausländerbehörde, davor haben die Asylanten AngstWer ist farbenfroh, blickt in unser Bilderbuch?Schlag die erste Seite auf, ignorier den HilferufSie wollen dich nach dem An-die-Wand-stellen verhaftenHier wirst du durch die Handschellen erwachsenJunge, keiner will was sehen, etwas sehenJunge, jeder macht die Augen zuDu siehst in meinen Augen jetzt das Ghetto, das GhettoHier kannst du die Prügel kassierenJunge, hier sind auch die Züge verschmiertIn meinem Ghetto
+          <t>[Hook]
+Sag mir tausend Mal, ich wär primitiv, doch wen interessiert´s
+Denn ich bin Ghetto, so Ghetto
+Leg mir 10.000 Euro auf den Tisch, doch trotzdem tick ich weiter Koks
+Denn ich bin Ghetto, so Ghetto
+Du hast mich angezeigt und ich hab dich geschlagen, frag jetzt nicht warum, Junge
+Ich bin Ghetto, so Ghetto
+Das ist Electro Ghetto Rap,Sonny Black, wen interessiert´s, Mann
+Ich bin Ghetto, so Ghetto
+[Part 1]
+Ich zeig dir Ghettos, wo eskeinen Kamin im Viertelgibt
+Ich erzähl euch jetzt mal etwas vom Satellitenschüssel-Crib
+Unsere Wände voll verschmiert, Fenster sind verschlossen
+Penner sind am Frieren und ein Rentner wird erstochen
+Kleine Kinder spielen, spielen mit dem Glück
+In meiner Kindheit wurden Klingen hier mit sieben schon gezückt
+Das Blaulicht hält wach
+Mann, ich ficke Prison BreakZeig mir, Bruder, wie man wirklich ausbricht im Knast
+Jeder Traum ist zerplatzt, die Seifenblase stirbt
+Keine Spuren, wenn man Messer in die Seitenstraße wirft
+Keine Spuren, weil man hier zusammenhält und schweigt
+Außerdem zählt in dieser kalten Welt nur eins
+Ficken oder selbst gefickt werden
+Entweder fickst du mit der Schlampe oder
+Du wirst morgen selber auf dem Strich sterben
+Vor Gericht wird jeder von uns schweigen
+Und dir bleibt nichts übrig, außer Zähne hier zu zeigen
+Der Anwalt wird hier bestochen
+Ja, dein Anwalt wird hier zerstochen
+Unsere Gegend, Junkies haben sich hier verkrochen
+Du willst hier überleben? Fick dein Erste-Hilfe-Buch
+Mein Ghetto, das hier ist mein Bilderbuch
+[Hook]
+[Part 2]
+Ich zeig dir plötzlich, schau, wie Bullen undercover warten, Stop!
+Wir machen Randale und die Panzerwagen starten
+Im Ghetto trägt manTyson-Schnitt
+Erster Mai, wir schmeißen Steine auf die Schweine
+Fick das Reizgas in meinem Gesicht
+Der meistgesuchte Rapper, Staatsfeind Nr.1
+Und trotzdem bleib ich Ghettostar. Zeig mir Jungs am Mic
+Die so gangsta flowen. Unsere Weste stoppt die Kugeln
+Ersguterschütze zielt Jungs in Action, fickt die Skrupel
+Mic aus. Das ist der Ort voller Armut
+Scheiß drauf, ich fahr in dein Dorf und ich schlag zu
+Ich muss nichts sagen
+Schau dir die Straßen und die Junkies an
+Die Ausländerbehörde, davor haben die Asylanten Angst
+Wer ist farbenfroh, blickt in unser Bilderbuch?
+Schlag die erste Seite auf, ignorier den Hilferuf
+Sie wollen dich nach dem An-die-Wand-stellen verhaften
+Hier wirst du durch die Handschellen erwachsen
+Junge, keiner will was sehen, etwas sehen
+Junge, jeder macht die Augen zu
+Du siehst in meinen Augen jetzt das Ghetto, das Ghetto
+Hier kannst du die Prügel kassieren
+Junge, hier sind auch die Züge verschmiert
+In meinem Ghetto
 [Hook]</t>
         </is>
       </c>
@@ -1582,9 +2952,57 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[Hook: Bushido &amp; (Oliver Pocher)](Kennst du die Stars), drauf geschissen(ihr habt euch echt den Arsch aufgerissen)Wir haben jetzt Lust, den Markt aufzumischen(eure Stars sind inzwischen nicht A, B, C)Sondern D-Promis,Olli, nein, ich hab kein Gewissen(2x)[Part 1: Oliver Pocher]Ich heiße Oliver, yeah, Pocher ist mein NachnameMark Medlock, du hast den Hintern voller Schlagsahne(Schlagsahne), die du überall verschmierstDu bist wie Sarah Connor, die sich überall blamiertIch werd im Radio nicht gespielt, Heidi KlumPapa Schlumpf, weg, Mann, Flavio, dann SealBesenkammer, Boris, Sandy Meyer-Wölden90 Jahre Unterschied wie Kader Loth und EltonBushido, wer ist diese Lady Bitch Ray(kein Plan, Olli, frag doch Lil Wayne), Lil WaynePaparaaaaaaazzi.......,Wer ist Sido, Loona und Detlef D! SoostDie nächsten Room 20 Hartz 4-Girls, ProstMario Barth, du fährst mit der U-Bahn in den ParkDeshalb steht hinter der Bühne dein Ferrari geparkt
-[Hook](Kennst du die Stars), drauf geschissen(ihr habt euch echt den Arsch aufgerissen)Wir haben jetzt Lust, den Markt aufzumischen(eure Stars sind inzwischen nicht A, B, C)Sondern D-Promis,Olli, nein, ich hab kein Gewissen(2x)[Part 2: Bushido]Ihr seid nicht A, B, C, sondern D-PromisJetzt halt die Schnauze und nenn mich Majestät SonnyIch lach mich so kaputt, wenn ich eure Stars sehIch schenke US 5 HaarsprayIch bleib ein Straßen-Wohnblock-Ghetto-OriginalIch traf Vera am Mittag, rettet diesen WalUnd Deutschland sucht mich, jetzt bekommt ihr euren SuperstarScheiß auf Mario, weil Pocher cooler warWir sind nicht USA und trotzdem wollt ihr sie kopier'nIch geh neunmal Gold, öffne die TürUnd der Gangster steht dran, Klopf, KlopfPromi-Dinner, ja, und Ross kocht und der Koch kotztIch bin zu krass für das ganze Scheiß-BusinessGangster auf der Afterparty, Türsteher bring'n nichtsEs kommt Bushido mit Olli-Pocher-Street-FlowGrüße gehen raus an Detlef D! Soost
-[Hook](Kennst du die Stars), drauf geschissen(ihr habt euch echt den Arsch aufgerissen)Wir haben jetzt Lust, den Markt aufzumischen(eure Stars sind inzwischen nicht A, B, C)Sondern D-Promis,Olli, nein, ich hab kein Gewissen(2x)</t>
+          <t>[Hook: Bushido &amp; (Oliver Pocher)]
+(Kennst du die Stars), drauf geschissen
+(ihr habt euch echt den Arsch aufgerissen)
+Wir haben jetzt Lust, den Markt aufzumischen
+(eure Stars sind inzwischen nicht A, B, C)Sondern D-Promis,
+Olli, nein, ich hab kein Gewissen
+(2x)
+[Part 1: Oliver Pocher]
+Ich heiße Oliver, yeah, Pocher ist mein Nachname
+Mark Medlock,du hast den Hintern voller Schlagsahne
+(Schlagsahne), die du überall verschmierst
+Du bist wie Sarah Connor, die sich überall blamiert
+Ich werd im Radio nicht gespielt,Heidi KlumPapa Schlumpf, weg, Mann, Flavio, dann Seal
+Besenkammer, Boris, Sandy Meyer-Wölden
+90 Jahre Unterschied wie Kader Loth und Elton
+Bushido, wer ist dieseLady Bitch Ray
+(kein Plan, Olli, frag doch Lil Wayne), Lil WaynePaparaaaaaaazzi.......,
+Wer ist Sido, Loona und Detlef D! Soost
+Die nächsten Room 20 Hartz 4-Girls, Prost
+Mario Barth, du fährst mit der U-Bahn in den ParkDeshalb steht hinter der Bühne dein Ferrari geparkt
+[Hook]
+(Kennst du die Stars), drauf geschissen
+(ihr habt euch echt den Arsch aufgerissen)
+Wir haben jetzt Lust, den Markt aufzumischen
+(eure Stars sind inzwischen nicht A, B, C)Sondern D-Promis,
+Olli, nein, ich hab kein Gewissen
+(2x)
+[Part 2: Bushido]
+Ihr seid nicht A, B, C, sondern D-Promis
+Jetzt halt die Schnauze und nenn michMajestät Sonny
+Ich lach mich so kaputt, wenn ich eure Stars seh
+Ich schenkeUS 5 Haarspray
+Ich bleib einStraßen-Wohnblock-Ghetto-Original
+Ich traf Vera am Mittag, rettet diesen Wal
+Und Deutschland sucht mich, jetzt bekommt ihr euren Superstar
+Scheiß auf Mario, weil Pocher cooler war
+Wir sind nicht USA und trotzdem wollt ihr sie kopier'n
+Ich geh neunmal Gold, öffne die Tür
+Und der Gangster steht dran, Klopf, Klopf
+Promi-Dinner, ja, und Ross kocht und der Koch kotzt
+Ich bin zu krass für das ganze Scheiß-Business
+Gangster auf der Afterparty, Türsteher bring'n nichts
+Es kommt Bushido mit Olli-Pocher-Street-Flow
+Grüße gehen raus an Detlef D! Soost
+[Hook]
+(Kennst du die Stars), drauf geschissen
+(ihr habt euch echt den Arsch aufgerissen)
+Wir haben jetzt Lust, den Markt aufzumischen
+(eure Stars sind inzwischen nicht A, B, C)Sondern D-Promis,
+Olli, nein, ich hab kein Gewissen
+(2x)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1638,9 +3056,72 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Die Engel kamen wieder zu spätJa der Teufel hat den Hass in meine Wiege gelegtUnd er zwang mich seitdem es in mir zu tragenDeswegen hab ich mich als Kind auch geschlagenEr wurde immer größerWenn einer stärker war, härter warOder auch bei Opas HerzinfarktEr wurde größer, als ich Mama schufften sahDen Boden putzen sah, Schulden kamen wir mussten zahlenUnd Bullen füttern ihn, so das er wachsen kannNur wegen ihm bin ich öfters in den Knast gegang'nEr macht mich hart, ja so hart doch dein Herz erfriertEr ist wie 'ne Droge, du vergisst dein' Schmerz in dirAuch wenn du mich bestrafst, guck her du fütterst ihnDie Unruhe lässt in dir jetzt ein Gewitter zieh'nIch hab' ihn nie rausbekomm', ich hab ihn reingefressenIch bin so von diesem Leid besessen[Hook: Bushido, Chakuza]Ich trage diesen Hass, Hass, Hass, Hass, HassDas Leid, den Schmerz, ich kann einfach nicht mehrSag wie lang ist das schon her?Das wir einfach glücklich war'n?Man ich kanns mir nicht erklärnDenn ich trage diesen Hass, Hass, Hass, Hass, HassDie Wut, den Schmerz, ich kann einfach nicht mehrSag wie lang ist das schon her?Sag wann hatt ich wirklich Glück?Ja das Ganze läuft verkehrt
-[Part 2: Chakuza]Was ein verrücktes LebenGott hat mal gesagt es werde LichtUnd anstatt Glück waren eben Schrott, Hass und Schmerzen da für michUnd wäre nicht Mom dauernd krank, perfekt und ohne WitzBrauch ich kaum Schnaps als Zaubertrank wie Ghetto-ObelixUnd er kränkt mich wieder einfach, echt, er lässt nichts losShit, meine immer weiße Weste scheint jetzt rotUnd der hat mir nicht verzieh'n, denn hilft mein Engel in der NotMuss er mit 'ner Waffe spielen und schiesst den letzten Engel totOh Mensch was ist jetzt los ich sah ja keine GespensterAn erster Stelle meine Eltern Paps, dann der Feind meiner Schwester und selbst mein macht sich besserMein Kopf bleibt ein ZellenblockVerschlossen, denn als Held bin ich besoffener als HancockHass, denk doch an mich und mach mich gnadenlos zum ZielUnd ertränk mich aber lasse bloß die ander'n aus dem SpielAuf dem harten Boden knien, doch das kann ich nichtKann dir nicht mehr sagen 'Hass ich hasse dich' von Angesicht zu Angesicht[Hook][Part 3: Bushido, Chakuza]Ja das Ganze läuft verkehrt, dieser Hass macht dich verrücktDieser Hass steigt dir zu Kopf, die Waffe bleibt gezücktUnd du denkst auch nicht mehr nachMan du denkst auch nicht mehr nachDenkst nicht nach was du tust, und werd' im Endeffekt bestraftEr raubt mir meinen Schlaf, raubt mir jeden SinnRaubt mir Skruppel, wenn ich jemand'n ausraub: es macht "ching ching"Das Leben auf der Straße, skruppellos und krass, zu krassDenn du pflanzt dir deine Wut und erntest Hass, Hass, Hass, Hass
-[Part 4: Chakuza]Hass lass mich ziehn, es hilft kein heul'n und kein flenn'Wenn schon heute in den Menschen dieses Feuer nicht mehr brenntUnd nur Enttäuschung bleibt am Ende und es [?] ist verdammtErleichtert diesen Mann um ganze 21 GrammSag was denkst du eigentlich man wer du bist, lass mich in Ruhe HassEs ist Chakuza verflucht oder sag mal warum tust du das?Ich lasse das nicht zu, du kannst nicht tun es gibt hier kein verlier'nDa oben bist du groß aber hier unten das ist mein Revier[Hook]</t>
+          <t>[Part 1: Bushido]
+Die Engel kamen wieder zu spät
+Ja der Teufel hat den Hass in meine Wiege gelegt
+Und er zwang mich seitdem es in mir zu tragen
+Deswegen hab ich mich als Kind auch geschlagen
+Er wurde immer größer
+Wenn einer stärker war, härter war
+Oder auch bei Opas Herzinfarkt
+Er wurde größer, als ich Mama schufften sah
+Den Boden putzen sah, Schulden kamen wir mussten zahlen
+Und Bullen füttern ihn, so das er wachsen kann
+Nur wegen ihm bin ich öfters in den Knast gegang'n
+Er macht mich hart, ja so hart doch dein Herz erfriert
+Er ist wie 'ne Droge, du vergisst dein' Schmerz in dir
+Auch wenn du mich bestrafst, guck her du fütterst ihn
+Die Unruhe lässt in dir jetzt ein Gewitter zieh'n
+Ich hab' ihn nie rausbekomm', ich hab ihn reingefressen
+Ich bin so von diesem Leid besessen
+[Hook: Bushido,Chakuza]
+Ich trage diesen Hass, Hass, Hass, Hass, Hass
+Das Leid,den Schmerz, ich kann einfach nicht mehr
+Sag wie lang ist das schon her?
+Das wir einfach glücklich war'n?
+Man ich kanns mir nicht erklärn
+Denn ich trage diesen Hass, Hass, Hass, Hass, Hass
+Die Wut, den Schmerz, ich kann einfach nicht mehr
+Sag wie lang ist das schon her?
+Sag wann hatt ich wirklich Glück?
+Ja das Ganze läuft verkehrt
+[Part 2: Chakuza]
+Was ein verrücktes Leben
+Gott hat mal gesagt es werde LichtUnd anstatt Glück waren eben Schrott, Hass und Schmerzen da für mich
+Und wäre nicht Mom dauernd krank, perfekt und ohne WitzBrauch ich kaum Schnaps als Zaubertrank wie Ghetto-Obelix
+Und er kränkt mich wieder einfach, echt, er lässt nichts los
+Shit, meine immer weiße Weste scheint jetzt rot
+Und der hat mir nicht verzieh'n, denn hilft mein Engel in der Not
+Muss er mit 'ner Waffe spielen und schiesst den letzten Engel tot
+Oh Mensch was ist jetzt los ich sah ja keine Gespenster
+An erster Stelle meine Eltern Paps, dann der Feind meiner Schwester und selbst mein macht sich besser
+Mein Kopf bleibt ein Zellenblock
+Verschlossen, denn als Held bin ich besoffener als Hancock
+Hass, denk doch an mich und mach mich gnadenlos zum Ziel
+Und ertränk mich aber lasse bloß die ander'n aus dem Spiel
+Auf dem harten Boden knien, doch das kann ich nicht
+Kann dir nicht mehr sagen 'Hass ich hasse dich' von Angesicht zu Angesicht
+[Hook]
+[Part 3: Bushido, Chakuza]
+Ja das Ganze läuft verkehrt, dieser Hass macht dich verrückt
+Dieser Hass steigt dir zu Kopf, die Waffe bleibt gezückt
+Und du denkst auch nicht mehr nach
+Man du denkst auch nicht mehr nach
+Denkst nicht nach was du tust, und werd' im Endeffekt bestraft
+Er raubt mir meinen Schlaf, raubt mir jeden Sinn
+Raubt mir Skruppel, wenn ich jemand'n ausraub: es macht "ching ching"
+Das Leben auf der Straße, skruppellos und krass, zu krass
+Denn du pflanzt dir deine Wut und erntest Hass, Hass, Hass, Hass
+[Part 4: Chakuza]
+Hass lass mich ziehn, es hilft kein heul'n und kein flenn'
+Wenn schon heute in den Menschen dieses Feuer nicht mehr brennt
+Und nur Enttäuschung bleibt am Ende und es [?] ist verdammt
+Erleichtert diesen Mann um ganze 21 Gramm
+Sag was denkst du eigentlich man wer du bist, lass mich in Ruhe Hass
+Es ist Chakuza verflucht oder sag mal warum tust du das?
+Ich lasse das nicht zu, du kannst nicht tun es gibt hier kein verlier'n
+Da oben bist du groß aber hier unten das ist mein Revier
+[Hook]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1694,9 +3175,95 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[Hook]Denn ich komm, nenn' mich Electro Rap, grad mit BetonStop, wir teilen aus denn das Album bekommtDen größten Respekt von der Straße, komm wer will jetzt kommen, MannEs gibt kein Wir!Es gibt nur einen König, der Rest bleibt KompostIch komm von ganz unten, direkt aus dem Block!Früher war's dealen, jetzt ist rappen mein StoffIch bin Boss, doch es gibt kein Wir![Part 1]Sonny, der Gangster im BlockHör den Tempelhof-RockDu stotternder TrottelDu Rentner mit StockUnd ich bring das Gesocks auf die Parties vom EchoSag wer kommt so ghetto, so ghetto, du kecko?Komm bounce, Fresse, ich schreib jetzt die LiederFür Gangster, für Penner, mein Look Al-QuaidaDie Atzen im Knast, KleinkriminellenSchau, deutscher Rap kriegt von mir gleich ein paar SchellenSo Gangster, komm mit der B-B-B-Basi anIch bring die NDW back in die 80s, dannKucken die Kids, spucken auf dichIch seh nur noch nuckelnde Nutten, sonst nichtsAttacken kommen jetzt, denn ich kack auf euch KecksHau kurz auf den Tisch und verpack ihn mit RapIch sattel dich jetzt und ich zieh an den ZügelnWir üben, ich hol mir den Titel im PrügelnDer King scheißt auf deinen Internet-Kinder-RapKinderschreck wird ich genannt, ich trink Gin und JackIch bleib jetzt der Boss in deinem ViertelDer Boss und ich sag um deinen Kopf wird gewürfeltIch gebe dich jetzt „Happy birthday, du bitch!“Dreh Clips weil mir jeder den Erdbeer jetzt gibtDer König ist weg, ich pöbel direktMein Schwanz ist wie mein Vermögen, es wächst !
-[Hook][Part 2]Sonny, der Gangster im Block, hör mein Trend und du kotztIch bin jetzt dein Boss, also stemm diesen Klotz!Selbst Aggro die Fotzen, sie glotzen jetzt dauerndSie werden fallen wie im Osten die Mauern!Wer bringt das Ghetto jetzt wieder zum Dome?Pacino, De Niro, Bushido, Stallone!Bin wieder zurück, und die Bombe, sie ticktJa die Bombe, sie tickt, k-k-komm und ich fick!So viele Gee´s, dein Homie hat KiesUnd wir holn uns die Kohle, Mafiosi-Prinzip!Mafiosi-Anis, wir sind die StreetsIch rapp, und hör von den Türken nur cüsJa das Magazin, es macht Klick und dann KlackDanach Zick und dann Zack, Mann es trifft dich im Takt!Und du brichst wie ein Ast, ich ziel auf dein PostenIhr Fotzen, jetzt wird auf den Beat eingestochen!Ich rappe zu krass, stech jetzt im TaktDurch mein Rap hab ich Schwuchteln und Lesben am Sack!Pech hast du Spast, ich spuck auf dein RapIch roll einfach jetzt wie ein Bus über Tracks!Fick deine Laufbahn, das wird der FaustkampfDu bist erst lila, dann grün und dann blau mann!Ich bin der King, King Sonny BlackHier ist King Sonny Black, in Beschimpfung der Chef!
-[Hook][Part 3]Sonny, der Gangster am Block, fahr' den Benz um den BlockMit dem Rücken zur Wand und die Hände am KopfDie Gänse gestopft … hab ich schon langUnd jede Frau will meinen arabischen SchwanzYeah, ich geh mich jetzt selbst indizierenVom Geld ??? wir bestellen, du servierstUnd der King, King, King, King, ist drei Tage wachIch krieg drei Tage Knast, weil ich drei Tickets habBin ein Assi, doch steh dazuIch mach nicht das was jeder tutSchieß ein Loch in deinen LederhutIch hör nur noch „Verknackt diesen Rapper!“Doch kuckt wie ich nachts über Stacheldraht kletter, neunGoldene Platten, sie hängen und ihr ToyFolgen Kanacken im Benz, ich rapp deutschUnd meinen Atzen gefällts, ja mein FreundHier kommt die bewaffnete GangIch bin einfach zu assozialGib die Knarre, lass jeden von Aggro zahlenP-P-P-Payback, ich bin der König der StreetMach auf Pimp, doch dein Weib ist womöglich geleastWomöglich erschieß ich jeden von euchEs geht Bam-Bam-Bam-BamUnd die Träne, sie läuft, du ToyDu bleibst ein Keck weil dein Papi zahltIch bin zu skrupellos, radikal, yeah
+          <t>[Hook]
+Denn ich komm, nenn' mich Electro Rap, grad mit Beton
+Stop, wir teilen aus denn das Album bekommt
+Den größten Respekt von der Straße, komm wer will jetzt kommen, Mann
+Es gibt kein Wir!
+Es gibt nur einen König, der Rest bleibt Kompost
+Ich komm von ganz unten, direkt aus dem Block!
+Früher war's dealen, jetzt ist rappen mein Stoff
+Ich bin Boss, doch es gibt kein Wir!
+[Part 1]
+Sonny, der Gangster im BlockHör den Tempelhof-Rock
+Du stotternder Trottel
+Du Rentner mit Stock
+Und ich bring das Gesocks auf die Parties vom Echo
+Sag wer kommt so ghetto, so ghetto, du kecko?
+Komm bounce, Fresse, ich schreib jetzt die Lieder
+Für Gangster, für Penner, mein Look Al-Quaida
+Die Atzen im Knast, Kleinkriminellen
+Schau, deutscher Rap kriegt von mir gleich ein paar Schellen
+So Gangster, komm mit der B-B-B-Basi an
+Ich bring die NDW back in die 80s, dann
+Kucken die Kids, spucken auf dich
+Ich seh nur noch nuckelnde Nutten, sonst nichts
+Attacken kommen jetzt, denn ich kack auf euch Kecks
+Hau kurz auf den Tisch und verpack ihn mit Rap
+Ich sattel dich jetzt und ich zieh an den Zügeln
+Wir üben, ich hol mir den Titel im Prügeln
+Der King scheißt auf deinen Internet-Kinder-Rap
+Kinderschreck wird ich genannt, ich trink Gin und Jack
+Ich bleib jetzt der Boss in deinem Viertel
+Der Boss und ich sag um deinen Kopf wird gewürfelt
+Ich gebe dich jetzt „Happy birthday, du bitch!“
+Dreh Clips weil mir jeder den Erdbeer jetzt gibt
+Der König ist weg, ich pöbel direkt
+Mein Schwanz ist wie mein Vermögen, es wächst !
+[Hook]
+[Part 2]
+Sonny, der Gangster im Block, hör mein Trend und du kotzt
+Ich bin jetzt dein Boss, also stemm diesen Klotz!
+Selbst Aggro die Fotzen, sie glotzen jetzt dauernd
+Sie werden fallen wie im Osten die Mauern!
+Wer bringt das Ghetto jetzt wieder zum Dome?
+Pacino, De Niro, Bushido, Stallone!
+Bin wieder zurück, und die Bombe, sie tickt
+Ja die Bombe, sie tickt, k-k-komm und ich fick!
+So viele Gee´s, dein Homie hat Kies
+Und wir holn uns die Kohle, Mafiosi-Prinzip!
+Mafiosi-Anis, wir sind die Streets
+Ich rapp, und hör von den Türken nur cüs
+Ja das Magazin, es macht Klick und dann Klack
+Danach Zick und dann Zack, Mann es trifft dich im Takt!
+Und du brichst wie ein Ast, ich ziel auf dein Posten
+Ihr Fotzen, jetzt wird auf den Beat eingestochen!
+Ich rappe zu krass, stech jetzt im Takt
+Durch mein Rap hab ich Schwuchteln und Lesben am Sack!
+Pech hast du Spast, ich spuck auf dein Rap
+Ich roll einfach jetzt wie ein Bus über Tracks!
+Fick deine Laufbahn, das wird der Faustkampf
+Du bist erst lila, dann grün und dann blau mann!
+Ich bin der King, King Sonny Black
+Hier ist King Sonny Black, in Beschimpfung der Chef!
+[Hook]
+[Part 3]
+Sonny, der Gangster am Block, fahr' den Benz um den Block
+Mit dem Rücken zur Wand und die Hände am Kopf
+Die Gänse gestopft … hab ich schon lang
+Und jede Frau will meinen arabischen Schwanz
+Yeah, ich geh mich jetzt selbst indizieren
+Vom Geld ??? wir bestellen, du servierst
+Und der King, King, King, King, ist drei Tage wach
+Ich krieg drei Tage Knast, weil ich drei Tickets hab
+Bin ein Assi, doch steh dazu
+Ich mach nicht das was jeder tut
+Schieß ein Loch in deinen Lederhut
+Ich hör nur noch „Verknackt diesen Rapper!“
+Doch kuckt wie ich nachts über Stacheldraht kletter, neun
+Goldene Platten, sie hängen und ihr Toy
+Folgen Kanacken im Benz, ich rapp deutsch
+Und meinen Atzen gefällts, ja mein Freund
+Hier kommt die bewaffnete Gang
+Ich bin einfach zu assozial
+Gib die Knarre, lass jeden von Aggro zahlen
+P-P-P-Payback, ich bin der König der Street
+Mach auf Pimp, doch dein Weib ist womöglich geleast
+Womöglich erschieß ich jeden von euch
+Es geht Bam-Bam-Bam-Bam
+Und die Träne, sie läuft, du Toy
+Du bleibst ein Keck weil dein Papi zahlt
+Ich bin zu skrupellos, radikal, yeah
 [Hook]</t>
         </is>
       </c>
@@ -1751,8 +3318,65 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[Hook](x2)Und du siehst grad die Tür, sie geht auf!Ich hab gesagt: Guck grade aus, Junge lauf! Junge lauf!Meine Blicke bleiben gesenkt, an die Wand stell'nEs klickt! Ich spür auf mein' Handgelenken die Handschellen! Es...[Part 1]Yeah, Ich sitz im AMG, ich fahr durch meinen DrecksblockAtme diese Drecksluft, atme ein, ich schmeck SmogDas ist das Ghetto, was du nicht verleugnen kannstIch schieb Hass. (Ich schieb Hass)Also fick dein deutschen Pass, Nutte!Das ist mein Leben, was die Bullen ruinieren!Lass mich vor dem Hauptquartier der Bullen urinieren!Ich bin Ghetto, bleib Ghetto, bleib BerlinerDieser Banger mit der Knarre wird nie farbenfroh wie KIKA!Komm, komm, komm, wir haben alles schon verlorenIch bleib Gangsta, Halt die Fresse!Hier wird krasser Zorn geboren!Jungs aus der GosseHörst du mir zu? Ich red von Gosse!Das Normalste auf der Welt, das ich mich boxe!Bullen hier, Bullen daÄrger hier und Ärger da!Du meinst, dass du härter warst? Ich komme grade erst in Fahrt!Und ganz egal, ob ich mit Ratten schon im Kerker warDeine Pädagogen-Schlampen-Mutter kriegt ein Herzinfarkt!Wer ist da? Wir sind da!Wir haben nichts mehr zu verlieren!Verkaufen Kokain, in dieser Zeit gehst du studiern!Sag, was kannst du Fake-Gangsta unternehm'?Gegen mein Gangsta-Unternehm'?Junge wähl die 110 und ich schwörs dir:Wir ficken solche scheiß Verräter! 31er, dein Arsch gehört mir!Steig in die S-Klasse, Fenster runter, spuck raus!Geb mir nur ein Mic und meine Hood bounct!
-[Hook](x2)[Part 2]Wer will mich bestehln? Los du mieser Kleptomane lauf!Ich häng im deutschen Rap so oft den Ghettopaten raus!Du baust ein Kartenhaus, alles fällt zusammen!Denkst du Opfer, du wirst durch ne Knarre zu nem Mann?Denkst du Opfer, du wirst durch dein Messer zu nem krassen Typ?Ich schreib nur ein verdammten Text und meine Kasse glüht!Weil ich darüber rap, was in meiner Welt passiertKein interessiert, ob du Kind wenig Geld kassierst!Ich atme tief ein, ich atme tief ausAtme den Smog ein, und rotze ihn raus!So sind die Gees drauf, Wände bleiben grau!Dieser Gangsta macht den Sound und ich ende bald im Bau!Kennst du das Gefühl von drauf sein? Kennst du das Gefühl von Macht?Oder sag mir, musstest du schon einmal austeilen?Kennst du das, wenn man im Traum weint?Weil du den nächsten Morgen kennst, unsre Sonne wird hier kaum schein'!Sag mir, dass dein Papa Oberarzt istIch versicher dir, dass man hier auch sowas abstichtWenn man in die falsche Gegend kommtWeil die Leute hier kein Geld haben!Geh mit deinem Papa jetzt in Geld baden![Hook](x2)</t>
+          <t>[Hook](x2)
+Und du siehst grad die Tür, sie geht auf!
+Ich hab gesagt: Guck grade aus, Junge lauf! Junge lauf!
+Meine Blicke bleiben gesenkt, an die Wand stell'n
+Es klickt! Ich spür auf mein' Handgelenken die Handschellen! Es...
+[Part 1]
+Yeah, Ich sitz im AMG, ich fahr durch meinen Drecksblock
+Atme diese Drecksluft, atme ein, ich schmeck Smog
+Das ist das Ghetto, was du nicht verleugnen kannst
+Ich schieb Hass. (Ich schieb Hass)
+Also fick dein deutschen Pass, Nutte!
+Das ist mein Leben, was die Bullen ruinieren!
+Lass mich vor dem Hauptquartier der Bullen urinieren!
+Ich bin Ghetto, bleib Ghetto, bleib Berliner
+Dieser Banger mit der Knarre wird nie farbenfroh wie KIKA!
+Komm, komm, komm, wir haben alles schon verloren
+Ich bleib Gangsta, Halt die Fresse!
+Hier wird krasser Zorn geboren!
+Jungs aus der Gosse
+Hörst du mir zu? Ich red von Gosse!
+Das Normalste auf der Welt, das ich mich boxe!
+Bullen hier, Bullen da
+Ärger hier und Ärger da!
+Du meinst, dass du härter warst? Ich komme grade erst in Fahrt!
+Und ganz egal, ob ich mit Ratten schon im Kerker war
+Deine Pädagogen-Schlampen-Mutter kriegt ein Herzinfarkt!
+Wer ist da? Wir sind da!
+Wir haben nichts mehr zu verlieren!
+Verkaufen Kokain, in dieser Zeit gehst du studiern!
+Sag, was kannst du Fake-Gangsta unternehm'?
+Gegen mein Gangsta-Unternehm'?
+Junge wähl die 110 und ich schwörs dir:
+Wir ficken solche scheiß Verräter! 31er, dein Arsch gehört mir!
+Steig in die S-Klasse, Fenster runter, spuck raus!
+Geb mir nur ein Mic und meine Hood bounct!
+[Hook](x2)
+[Part 2]
+Wer will mich bestehln? Los du mieser Kleptomane lauf!
+Ich häng im deutschen Rap so oft den Ghettopaten raus!
+Du baust ein Kartenhaus, alles fällt zusammen!
+Denkst du Opfer, du wirst durch ne Knarre zu nem Mann?
+Denkst du Opfer, du wirst durch dein Messer zu nem krassen Typ?
+Ich schreib nur ein verdammten Text und meine Kasse glüht!
+Weil ich darüber rap, was in meiner Welt passiert
+Kein interessiert, ob du Kind wenig Geld kassierst!
+Ich atme tief ein, ich atme tief aus
+Atme den Smog ein, und rotze ihn raus!
+So sind die Gees drauf, Wände bleiben grau!
+Dieser Gangsta macht den Sound und ich ende bald im Bau!
+Kennst du das Gefühl von drauf sein? Kennst du das Gefühl von Macht?
+Oder sag mir, musstest du schon einmal austeilen?
+Kennst du das, wenn man im Traum weint?
+Weil du den nächsten Morgen kennst, unsre Sonne wird hier kaum schein'!
+Sag mir, dass dein Papa Oberarzt ist
+Ich versicher dir, dass man hier auch sowas absticht
+Wenn man in die falsche Gegend kommt
+Weil die Leute hier kein Geld haben!
+Geh mit deinem Papa jetzt in Geld baden!
+[Hook](x2)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1806,8 +3430,72 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[Part 1]Ich war der mit skrupellosen FreundenNich' aufgepasst, wir gingen zwar zur Schule, doch wir träumtenJugendtherapeuten ha'm mich früh schon aufgegebenAuch im Heim brauchte ich keinen, denn sie ha'm mich rausgetretenRausgetreten aus der heilen Welt, die mich nicht wollt', mich nicht wollt'Ich bin nie zurück, man, ich besitze StolzSie haben gemeint aus mir wird nichts, vielleicht ein StraßenpennerJa, ich vergeude meine Zeit mit halbstarken MännernHalbstarke Männer wurden durch die Gegend KälterMein Leben lang begleitet mich schon der BewährungshelferIch hatt' nur Ärger, nein, ich hatte keinen 2Pac-FlowLederjacken, Zahnstocher, wer vertickt am U-Bahnhof?Wer war täglich bei den Bullen und wurde vorgeführt?Ich sah's an Mamas Augen, ja, sie hatt's sofort gespürtSofort gespürt, wenn ich nur Scheiße machSie hat schlecht geträumt, ich war in Einzelhaft[Hook]Und sie dachten ich will Penner werdenJunge, guck, was ich geleistet hab, manDas kann aus 'nem Penner werdenWir wollten nur Männer werdenSo oft geboxt und auch gedealtWir wollten Macht und keine Penner werdenDachten ich will Penner werdenJunge, guck, was ich geleistet hab, manDas kann aus 'nem Penner werdenWir wollten nur Männer werdenSo oft geboxt und auch gedealtWir wollten Macht und keine Penner werden
-[Part 2]Jeden Tag passierten Sachen, hier vor ihren AugenDen Augen meiner Psychologen, du verlierst den GlaubenSie wollten mich fallen lassen, es ist ihnen gelungenMama meinte sie zerbrechen diesen JungenDoch sie brachen nur Versprechen, alles kommt zurückUnd zum Glück nannte ich dann automatisch die VerbrechenKeine Akte, sondern AktenschrankDrogenschmuggel, Dealerei, Acht, Neun Einbrüche und paar Autos abgebranntWas für März, April? Jeder Tag war erster MaiDu wirst es nie verstehen, Junge, doch mein Herz war reinDu wirst schon abgestempelt, wenn du tätowiert bistIch geb mein Zeugnis ab, ihn intressiert's nichtKeinen intressiert was einmal aus dir wirdJa, sie intressier'n sich nur wenn du in Scheiße liegst und stirbstDoch dann ist es zu spät, dieser Weg hier ist nicht leichtDu trifft Schlangen, wenn du schläfst[Hook][Part 3]Du dachtest ich wär niemals so qualifiziertDoch ich kannte jeden Schritt bei dieser Koka-Pflanze, yeahSpuck' komplett auf Niveau, diese drecks AggressionAuf den Boden, Gib die Kohle, Ausflug S-BahnstationFür sie war ich nur ein hoffnungsloser FallHand auf's Herz, nein, ich schulde diesen Opfern keinen Gefallen, yeahWie oft wurde auf mich eingetreten, eingeredetKeine Träne zeig ich denenGeht euch für die Scheiße schämenIn meinen Venen fließt nur dieser tiefe HassWeil ich durch Drogen auf den Tisch gerade 7 Riesen klatschMit 20 Jahren hatt' ich über 60 AnzeigenJetzt werd ich 30 und sie wollen mich aus dem Land weisenDoch irgendwann wird dieser Drogenboss MinisterIch glaube meine Lehrer waren Roland Kochs GeschwisterUnd sie dachten ich will Penner werdenIch lache zuletzt, das hier kann aus einem Penner werden
+          <t>[Part 1]
+Ich war der mit skrupellosen Freunden
+Nich' aufgepasst, wir gingen zwar zur Schule, doch wir träumten
+Jugendtherapeuten ha'm mich früh schon aufgegeben
+Auch im Heim brauchte ich keinen, denn sie ha'm mich rausgetreten
+Rausgetreten aus der heilen Welt, die mich nicht wollt', mich nicht wollt'
+Ich bin nie zurück, man, ich besitze Stolz
+Sie haben gemeint aus mir wird nichts, vielleicht ein Straßenpenner
+Ja, ich vergeude meine Zeit mit halbstarken Männern
+Halbstarke Männer wurden durch die Gegend Kälter
+Mein Leben lang begleitet mich schon der Bewährungshelfer
+Ich hatt' nur Ärger, nein, ich hatte keinen 2Pac-Flow
+Lederjacken, Zahnstocher, wer vertickt am U-Bahnhof?
+Wer war täglich bei den Bullen und wurde vorgeführt?
+Ich sah's an Mamas Augen, ja, sie hatt's sofort gespürt
+Sofort gespürt, wenn ich nur Scheiße mach
+Sie hat schlecht geträumt, ich war in Einzelhaft
+[Hook]
+Und sie dachten ich will Penner werden
+Junge, guck, was ich geleistet hab, man
+Das kann aus 'nem Penner werden
+Wir wollten nur Männer werden
+So oft geboxt und auch gedealt
+Wir wollten Macht und keine Penner werden
+Dachten ich will Penner werden
+Junge, guck, was ich geleistet hab, man
+Das kann aus 'nem Penner werden
+Wir wollten nur Männer werden
+So oft geboxt und auch gedealt
+Wir wollten Macht und keine Penner werden
+[Part 2]
+Jeden Tag passierten Sachen, hier vor ihren Augen
+Den Augen meiner Psychologen, du verlierst den Glauben
+Sie wollten mich fallen lassen, es ist ihnen gelungen
+Mama meinte sie zerbrechen diesen Jungen
+Doch sie brachen nur Versprechen, alles kommt zurück
+Und zum Glück nannte ich dann automatisch die Verbrechen
+Keine Akte, sondern Aktenschrank
+Drogenschmuggel, Dealerei, Acht, Neun Einbrüche und paar Autos abgebrannt
+Was für März, April? Jeder Tag war erster Mai
+Du wirst es nie verstehen, Junge, doch mein Herz war rein
+Du wirst schon abgestempelt, wenn du tätowiert bist
+Ich geb mein Zeugnis ab, ihn intressiert's nicht
+Keinen intressiert was einmal aus dir wird
+Ja, sie intressier'n sich nur wenn du in Scheiße liegst und stirbst
+Doch dann ist es zu spät, dieser Weg hier ist nicht leicht
+Du trifft Schlangen, wenn du schläfst
+[Hook]
+[Part 3]
+Du dachtest ich wär niemals so qualifiziert
+Doch ich kannte jeden Schritt bei dieser Koka-Pflanze, yeah
+Spuck' komplett auf Niveau, diese drecks Aggression
+Auf den Boden, Gib die Kohle, Ausflug S-Bahnstation
+Für sie war ich nur ein hoffnungsloser Fall
+Hand auf's Herz, nein, ich schulde diesen Opfern keinen Gefallen, yeah
+Wie oft wurde auf mich eingetreten, eingeredet
+Keine Träne zeig ich denen
+Geht euch für die Scheiße schämen
+In meinen Venen fließt nur dieser tiefe Hass
+Weil ich durch Drogen auf den Tisch gerade 7 Riesen klatsch
+Mit 20 Jahren hatt' ich über 60 Anzeigen
+Jetzt werd ich 30 und sie wollen mich aus dem Land weisen
+Doch irgendwann wird dieser Drogenboss Minister
+Ich glaube meine Lehrer waren Roland Kochs Geschwister
+Und sie dachten ich will Penner werden
+Ich lache zuletzt, das hier kann aus einem Penner werden
 [Hook]</t>
         </is>
       </c>
@@ -1862,9 +3550,75 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[Hook: Summer Cem]Und auf einmal geht es wie-der losDu kriegst Rheydt und auch Berlin Ver-botHier werden all die Drogendea-ler großDu spielst nicht in unserer Liga HomesLeider hast du dich verlaufen im GameDu hast uns gestern im Auto gesehen, YouPornEs war deine Frau die da bläst, ficke nicht mit unserer Autorität![Part 1: Summer Cem]Deutscher Rap braucht mehr als Cordon und Picaldi ImagepflegeStep ans Mikro doch nach diesem Sommer (Fick ich euer leben)Du bist voll im Sack und unter DrogenIn deiner vollbekackten Unterhose, machst du auf mit Gold bewaffnete MafiosenS-U doppel M-ER, ich hab keine DoppelgängerWenn du nicht verstehst, kriegst du es in dein Kopf gehämmertShowtime du wirfst die Münze in die JukeboxDeine Freundin bläst, ich spritze ab wie ein DuschkopfDu findest mich echt kacke, du meinst mich und meine S-Klasse?Zieh dir weiter Pornos auf die FestplatteHa-ha-ha, Dreckslache!Nutten mit denen du mal Sex hattest, sitzen heut' am Bahnhof mit 'ner Becks Flasche, Drecksratte!Ich klatsche jeden LadendetektivDeine Frau ist so fett, man braucht einen Kran um sie zu ziehn'Und du sagst, ich hätte mir die Zukunft deutlich versautDoch wenn wir kommen, holt deine Mutter die Feuchttücher raus!
-[Hook. Summer Cem][Part 2: Bushido]Ich weiß, dass mich der Hass nur weiterbringtIch bleib ein GastarbeiterkindPlan den Überfall jetzt (Übergieß euch mit 'nem Eimer Sieg)Komm zum GangsterkonventionIch bin Tempelhofs BaronSchnauze, Hände hoch, Idiot, nehme vom Bänker die Million!Steche zu, Rappe zu -Ghetto-Also merk dir eins, ich bleib unfassbar brutalRaptile, und ich fick mit deinesUnd du siehst den Unterschied, übertrieben runder BeatMamas Einkaufstüten tragen gerade 700 Gee'sBleib ein Pate und MafiosiLauf ins CaféSie sagen zu mir: Toni grab ein Loch in deinen Garten wie bei Obi!Ich mach die Blüten klar, Poster Junge, ÜberstarUnd mein erstes Wort im Kindergarten war "TatüTata"!Ziele und schlag drauf, jetzt kommt Prügelknaben SoundJungs vom anderen Ufer hau ich mit vergnügen jetzt aufs Maul!Bleib ein Worldtrade-Gangster!Auf Al-Jazeera läuft der ClipSummer hör mir zu, weil jetzt der Teufel spricht, Sonny Black![Hook. Summer Cem]
-[Part 3: Summer Cem]Das ist mein Lebenslauf, lauf um dein Leben lauf30 tage U-Haft und danach auf Bewährung raus!Du kannst auf dem Standstreifen chillenDoch in den Augen deiner Mutter seh ichDass sie meinen Schwanz streicheln willIch bin lebenswürdig, denn egal was warIch blieb im Viertel und verteilte Schellen mit dem NietengürtelUm meine Person ist ein RiesenwirbelDoch wäre mein Opa in der Heimat geblieben, wär ich heute Ziegenhüter![Part 4: Bushido]Deine Tante bumst den Nazi, bleibt die Schlampe vom BasarUnd dein Vater hat die Nutte seit dem Standesamt am ArschIch bin Ghetto, ich bin Straße, ich bin all das, was du Toy gern wärstDu siehst aus wie Lukas Hilbert, irgendetwas läuft verkehrtBring deine Freunde her, die Konkurrenz geht badenIch fahr' nur Mercedes, also nennt mich Onkel Benz ihr Scharben!Ich bin G-G-G-Gotzenrapper, Schnauze, wenn ich rede!Früher macht ich auf dem Pausenhof die KneteKommt verpiss dich Junge![Hook: Summer Cem]</t>
+          <t>[Hook: Summer Cem]
+Und auf einmal geht es wie-der los
+Du kriegst Rheydt und auch Berlin Ver-bot
+Hier werden all die Drogendea-ler groß
+Du spielst nicht in unserer Liga Homes
+Leider hast du dich verlaufen im Game
+Du hast uns gestern im Auto gesehen, YouPorn
+Es war deine Frau die da bläst, ficke nicht mit unserer Autorität!
+[Part 1: Summer Cem]
+Deutscher Rap braucht mehr als Cordon und Picaldi ImagepflegeStep ans Mikro doch nach diesem Sommer (Fick ich euer leben)
+Du bist voll im Sack und unter Drogen
+In deiner vollbekackten Unterhose, machst du auf mit Gold bewaffnete Mafiosen
+S-U doppel M-ER, ich hab keine Doppelgänger
+Wenn du nicht verstehst, kriegst du es in dein Kopf gehämmert
+Showtime du wirfst die Münze in die Jukebox
+Deine Freundin bläst, ich spritze ab wie ein Duschkopf
+Du findest mich echt kacke, du meinst mich und meine S-Klasse?
+Zieh dir weiter Pornos auf die Festplatte
+Ha-ha-ha, Dreckslache!
+Nutten mit denen du mal Sex hattest, sitzen heut' am Bahnhof mit 'ner Becks Flasche, Drecksratte!
+Ich klatsche jeden Ladendetektiv
+Deine Frau ist so fett, man braucht einen Kran um sie zu ziehn'
+Und du sagst, ich hätte mir die Zukunft deutlich versaut
+Doch wenn wir kommen, holt deine Mutter die Feuchttücher raus!
+[Hook. Summer Cem]
+[Part 2: Bushido]
+Ich weiß, dass mich der Hass nur weiterbringt
+Ich bleib ein Gastarbeiterkind
+Plan den Überfall jetzt (Übergieß euch mit 'nem Eimer Sieg)
+Komm zum Gangsterkonvention
+Ich bin Tempelhofs Baron
+Schnauze, Hände hoch, Idiot, nehme vom Bänker die Million!
+Steche zu, Rappe zu -Ghetto-
+Also merk dir eins, ich bleib unfassbar brutal
+Raptile, und ich fick mit deines
+Und du siehst den Unterschied, übertrieben runder Beat
+Mamas Einkaufstüten tragen gerade 700 Gee's
+Bleib ein Pate und Mafiosi
+Lauf ins Café
+Sie sagen zu mir: Toni grab ein Loch in deinen Garten wie bei Obi!
+Ich mach die Blüten klar, Poster Junge, Überstar
+Und mein erstes Wort im Kindergarten war "TatüTata"!
+Ziele und schlag drauf, jetzt kommt Prügelknaben Sound
+Jungs vom anderen Ufer hau ich mit vergnügen jetzt aufs Maul!
+Bleib ein Worldtrade-Gangster!
+Auf Al-Jazeera läuft der Clip
+Summer hör mir zu, weil jetzt der Teufel spricht, Sonny Black!
+[Hook. Summer Cem]
+[Part 3: Summer Cem]
+Das ist mein Lebenslauf, lauf um dein Leben lauf
+30 tage U-Haft und danach auf Bewährung raus!
+Du kannst auf dem Standstreifen chillen
+Doch in den Augen deiner Mutter seh ich
+Dass sie meinen Schwanz streicheln will
+Ich bin lebenswürdig, denn egal was war
+Ich blieb im Viertel und verteilte Schellen mit dem Nietengürtel
+Um meine Person ist ein Riesenwirbel
+Doch wäre mein Opa in der Heimat geblieben, wär ich heute Ziegenhüter!
+[Part 4: Bushido]
+Deine Tante bumst den Nazi, bleibt die Schlampe vom Basar
+Und dein Vater hat die Nutte seit dem Standesamt am Arsch
+Ich bin Ghetto, ich bin Straße, ich bin all das, was du Toy gern wärst
+Du siehst aus wie Lukas Hilbert, irgendetwas läuft verkehrt
+Bring deine Freunde her, die Konkurrenz geht baden
+Ich fahr' nur Mercedes, also nennt mich Onkel Benz ihr Scharben!
+Ich bin G-G-G-Gotzenrapper, Schnauze, wenn ich rede!
+Früher macht ich auf dem Pausenhof die Knete
+Kommt verpiss dich Junge!
+[Hook: Summer Cem]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
